--- a/carga/renovacion_especial/productividad_asesores/renovacion_especial_productividad_asesores_20231120_150641_620.xlsx
+++ b/carga/renovacion_especial/productividad_asesores/renovacion_especial_productividad_asesores_20231120_150641_620.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X85"/>
+  <dimension ref="A1:X168"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,33 +442,33 @@
         <v>Grupo de atención</v>
       </c>
       <c r="U1" t="str">
+        <v>FEEDBACK</v>
+      </c>
+      <c r="V1" t="str">
+        <v>COACHING</v>
+      </c>
+      <c r="W1" t="str">
         <v>BACKOFFICE</v>
       </c>
-      <c r="V1" t="str">
-        <v>BREAK</v>
-      </c>
-      <c r="W1" t="str">
-        <v>BAÑO</v>
-      </c>
       <c r="X1" t="str">
-        <v>FEEDBACK</v>
+        <v>ENFERMERÍA</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>E8240615</v>
+        <v>E8239622</v>
       </c>
       <c r="B2" t="str">
-        <v>E8240615_MAGDALENA DEL MILAGRO RAMOS GONZALES_POST</v>
+        <v>E8239622 - MARYHORY PAOLA LEIGH SANCHEZ</v>
       </c>
       <c r="C2" t="str">
         <v/>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -477,34 +477,34 @@
         <v>0</v>
       </c>
       <c r="H2" t="str">
-        <v>00:00:00</v>
+        <v>00:00:52</v>
       </c>
       <c r="I2" t="str">
-        <v>00:00:00</v>
+        <v>00:01:14</v>
       </c>
       <c r="J2" t="str">
-        <v>00:00:00</v>
+        <v>00:00:31</v>
       </c>
       <c r="K2" t="str">
-        <v>00:00:00</v>
+        <v>05:03:18</v>
       </c>
       <c r="L2" t="str">
-        <v>00:00:00</v>
+        <v>01:28:03</v>
       </c>
       <c r="M2" t="str">
-        <v>00:00:00</v>
+        <v>02:28:32</v>
       </c>
       <c r="N2" t="str">
-        <v>00:00:00</v>
+        <v>03:56:50</v>
       </c>
       <c r="O2" t="str">
-        <v>00:00:00</v>
+        <v>00:58:46</v>
       </c>
       <c r="P2" t="str">
-        <v>00:00:00</v>
+        <v>00:01:42</v>
       </c>
       <c r="Q2" t="str">
-        <v>00:00:00</v>
+        <v>00:02:17</v>
       </c>
       <c r="R2" t="str">
         <v>0</v>
@@ -513,15 +513,15 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T2" t="str">
-        <v>GR01</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>E8232798</v>
+        <v>E8242087</v>
       </c>
       <c r="B3" t="str">
-        <v>E8232798_EDITHA DAMARIS NIETO CONTRERAS_POST</v>
+        <v>E8242087-HECTOR JESUS MORALES SILVA</v>
       </c>
       <c r="C3" t="str">
         <v/>
@@ -572,27 +572,27 @@
         <v>0</v>
       </c>
       <c r="S3" t="str">
-        <v>DESCONECTADO</v>
+        <v>ACTIVO</v>
       </c>
       <c r="T3" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>E8240597</v>
+        <v>E8236403</v>
       </c>
       <c r="B4" t="str">
-        <v>E8240597_CARLOS ROBERTO CAMARGO ZUÑIGA_POST</v>
+        <v>E8236403-EMMY NAYELY MENA EQUISE</v>
       </c>
       <c r="C4" t="str">
         <v/>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -601,60 +601,60 @@
         <v>0</v>
       </c>
       <c r="H4" t="str">
-        <v>00:00:00</v>
+        <v>00:00:28</v>
       </c>
       <c r="I4" t="str">
-        <v>00:00:00</v>
+        <v>00:01:10</v>
       </c>
       <c r="J4" t="str">
-        <v>00:00:00</v>
+        <v>00:00:11</v>
       </c>
       <c r="K4" t="str">
-        <v>00:00:00</v>
+        <v>02:12:37</v>
       </c>
       <c r="L4" t="str">
-        <v>00:00:00</v>
+        <v>00:52:36</v>
       </c>
       <c r="M4" t="str">
-        <v>00:00:00</v>
+        <v>00:31:47</v>
       </c>
       <c r="N4" t="str">
-        <v>00:00:00</v>
+        <v>01:07:52</v>
       </c>
       <c r="O4" t="str">
-        <v>00:00:00</v>
+        <v>00:16:24</v>
       </c>
       <c r="P4" t="str">
-        <v>00:00:00</v>
+        <v>00:00:47</v>
       </c>
       <c r="Q4" t="str">
-        <v>00:00:00</v>
+        <v>00:00:59</v>
       </c>
       <c r="R4" t="str">
         <v>0</v>
       </c>
       <c r="S4" t="str">
-        <v>DESCONECTADO</v>
+        <v>ACTIVO</v>
       </c>
       <c r="T4" t="str">
-        <v>GR01</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>E8240595</v>
+        <v>E8241651</v>
       </c>
       <c r="B5" t="str">
-        <v>E8240595_AYESHA ALEXANDRA DEXTRE SCHANKS_POST</v>
+        <v>E8241651-KATHERINE STEFANY RUIZ PILLACA</v>
       </c>
       <c r="C5" t="str">
-        <v>12:03:55</v>
+        <v/>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -663,57 +663,51 @@
         <v>0</v>
       </c>
       <c r="H5" t="str">
-        <v>00:01:14</v>
+        <v>00:00:00</v>
       </c>
       <c r="I5" t="str">
-        <v>00:02:43</v>
+        <v>00:00:00</v>
       </c>
       <c r="J5" t="str">
-        <v>00:00:16</v>
+        <v>00:00:00</v>
       </c>
       <c r="K5" t="str">
-        <v>00:55:32</v>
+        <v>00:00:00</v>
       </c>
       <c r="L5" t="str">
-        <v>00:08:59</v>
+        <v>00:00:00</v>
       </c>
       <c r="M5" t="str">
-        <v>00:20:34</v>
+        <v>00:00:00</v>
       </c>
       <c r="N5" t="str">
-        <v>00:53:26</v>
+        <v>00:00:00</v>
       </c>
       <c r="O5" t="str">
-        <v>00:05:15</v>
+        <v>00:00:00</v>
       </c>
       <c r="P5" t="str">
-        <v>00:01:23</v>
+        <v>00:00:00</v>
       </c>
       <c r="Q5" t="str">
-        <v>00:01:47</v>
+        <v>00:00:00</v>
       </c>
       <c r="R5" t="str">
-        <v>493</v>
+        <v>0</v>
       </c>
       <c r="S5" t="str">
         <v>DESCONECTADO</v>
       </c>
       <c r="T5" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="U5" t="str">
-        <v>00:00:03</v>
-      </c>
-      <c r="V5" t="str">
-        <v>00:30:58</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>E8241372</v>
+        <v>E8242081</v>
       </c>
       <c r="B6" t="str">
-        <v>E8241372_MIGUEL ALEXANDER GUTIERREZ HERNANDEZ_POST</v>
+        <v>E8242081-RENE MARISOL SANCHEZ MONTENEGRO</v>
       </c>
       <c r="C6" t="str">
         <v/>
@@ -767,15 +761,15 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T6" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>E8232174</v>
+        <v>E8241385</v>
       </c>
       <c r="B7" t="str">
-        <v>E8232174_NASHIRA SILVIA MUÑOZ SOTOMAYOR_POST</v>
+        <v>E8241385 - ROXANA TERESA CARDENAS CISNEROS</v>
       </c>
       <c r="C7" t="str">
         <v/>
@@ -829,24 +823,24 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T7" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>E8239300</v>
+        <v>E8242083</v>
       </c>
       <c r="B8" t="str">
-        <v>E8239300_PEDRO ENRIQUE CHAVESTA LABRIN_POST</v>
+        <v>E8242083- SUSAN EDELMIRA BARRANZUELA ALARCON</v>
       </c>
       <c r="C8" t="str">
-        <v>08:00:46</v>
+        <v/>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -855,57 +849,51 @@
         <v>0</v>
       </c>
       <c r="H8" t="str">
-        <v>00:00:59</v>
+        <v>00:00:00</v>
       </c>
       <c r="I8" t="str">
-        <v>00:03:44</v>
+        <v>00:00:00</v>
       </c>
       <c r="J8" t="str">
-        <v>00:00:10</v>
+        <v>00:00:00</v>
       </c>
       <c r="K8" t="str">
-        <v>01:18:38</v>
+        <v>00:00:00</v>
       </c>
       <c r="L8" t="str">
-        <v>00:08:56</v>
+        <v>00:00:00</v>
       </c>
       <c r="M8" t="str">
-        <v>00:36:54</v>
+        <v>00:00:00</v>
       </c>
       <c r="N8" t="str">
-        <v>01:15:28</v>
+        <v>00:00:00</v>
       </c>
       <c r="O8" t="str">
-        <v>00:05:13</v>
+        <v>00:00:00</v>
       </c>
       <c r="P8" t="str">
-        <v>00:01:20</v>
+        <v>00:00:00</v>
       </c>
       <c r="Q8" t="str">
-        <v>00:01:45</v>
+        <v>00:00:00</v>
       </c>
       <c r="R8" t="str">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="S8" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T8" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="U8" t="str">
-        <v>00:09:19</v>
-      </c>
-      <c r="V8" t="str">
-        <v>00:03:55</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>E8240617</v>
+        <v>E8242096</v>
       </c>
       <c r="B9" t="str">
-        <v>E8240617_MARGARITA MILLA CELIS_POST</v>
+        <v>E8242096 - KARIS VALERIA ELERA PACHECO</v>
       </c>
       <c r="C9" t="str">
         <v/>
@@ -959,15 +947,15 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T9" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>E8240132</v>
+        <v>E8241666</v>
       </c>
       <c r="B10" t="str">
-        <v>E8240132_TAMARA LISBETH ESPINOZA ROJAS_PRE</v>
+        <v>E8241666-NICK PATRICK RICHARD JACINTO VALLE</v>
       </c>
       <c r="C10" t="str">
         <v/>
@@ -1021,15 +1009,15 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T10" t="str">
-        <v>GR07</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>E8240630</v>
+        <v>E8237718</v>
       </c>
       <c r="B11" t="str">
-        <v>E8240630_ROCIO BEATRIZ QUIROZ MORENO_POST</v>
+        <v>E8237718 - KATHERINE SHEYLA ASENCIO VALDEZ</v>
       </c>
       <c r="C11" t="str">
         <v/>
@@ -1083,15 +1071,15 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T11" t="str">
-        <v>GR01</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>E8236104</v>
+        <v>E8242393</v>
       </c>
       <c r="B12" t="str">
-        <v>E8236104_ROSITA DE LOS MILAGROS CASTRO MURO_POST</v>
+        <v>MISHELL STEPHANIE NEIRA HURTADO</v>
       </c>
       <c r="C12" t="str">
         <v/>
@@ -1145,15 +1133,15 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T12" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>E8235498</v>
+        <v>E8242101</v>
       </c>
       <c r="B13" t="str">
-        <v>E8235498_GRETY MARYORI GUERRERO PRADO_POST</v>
+        <v>E8242101-JAZMIN ANASOFIA ORTIZ CASTRO</v>
       </c>
       <c r="C13" t="str">
         <v/>
@@ -1207,24 +1195,24 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T13" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>E8240604</v>
+        <v>E8234878</v>
       </c>
       <c r="B14" t="str">
-        <v>E8240604_HECTOR ANDRE FARIAS GRIMALDO_POST</v>
+        <v>E8234878 - PAMELA LISETH YUPANQUI CORDOVA</v>
       </c>
       <c r="C14" t="str">
-        <v>12:00:04</v>
+        <v>17:39:50</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1233,54 +1221,54 @@
         <v>0</v>
       </c>
       <c r="H14" t="str">
-        <v>00:00:31</v>
+        <v>00:00:36</v>
       </c>
       <c r="I14" t="str">
-        <v>00:01:00</v>
+        <v>00:01:26</v>
       </c>
       <c r="J14" t="str">
-        <v>00:00:16</v>
+        <v>00:00:07</v>
       </c>
       <c r="K14" t="str">
-        <v>01:23:31</v>
+        <v>05:28:20</v>
       </c>
       <c r="L14" t="str">
-        <v>00:11:43</v>
+        <v>02:54:31</v>
       </c>
       <c r="M14" t="str">
-        <v>00:30:30</v>
+        <v>01:29:39</v>
       </c>
       <c r="N14" t="str">
-        <v>01:10:36</v>
+        <v>02:38:45</v>
       </c>
       <c r="O14" t="str">
-        <v>00:09:55</v>
+        <v>00:01:59</v>
       </c>
       <c r="P14" t="str">
-        <v>00:01:05</v>
+        <v>00:06:33</v>
       </c>
       <c r="Q14" t="str">
-        <v>00:01:25</v>
+        <v>00:12:51</v>
       </c>
       <c r="R14" t="str">
-        <v>495</v>
+        <v>3</v>
       </c>
       <c r="S14" t="str">
         <v>ACTIVO</v>
       </c>
       <c r="T14" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="V14" t="str">
-        <v>00:02:35</v>
+        <v>GR02</v>
+      </c>
+      <c r="U14" t="str">
+        <v>00:03:06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>E8237046</v>
+        <v>E8242088</v>
       </c>
       <c r="B15" t="str">
-        <v>E8237046_YULIANA  LUVIDKA VILCA  MAMANI_POST</v>
+        <v>CESAR AUGUSTO SILVA CHU</v>
       </c>
       <c r="C15" t="str">
         <v/>
@@ -1334,24 +1322,24 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T15" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>E8232167</v>
+        <v>E8238265</v>
       </c>
       <c r="B16" t="str">
-        <v>E8232167_PIERO FERNANDO GUTIERREZ TABOADA_POST</v>
+        <v>E8238265 - JUAN JOSE VENTURA ANGELES</v>
       </c>
       <c r="C16" t="str">
-        <v>07:59:30</v>
+        <v/>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1360,54 +1348,51 @@
         <v>0</v>
       </c>
       <c r="H16" t="str">
-        <v>00:00:19</v>
+        <v>00:00:00</v>
       </c>
       <c r="I16" t="str">
-        <v>00:00:59</v>
+        <v>00:00:00</v>
       </c>
       <c r="J16" t="str">
-        <v>00:00:07</v>
+        <v>00:00:00</v>
       </c>
       <c r="K16" t="str">
-        <v>01:11:25</v>
+        <v>00:00:00</v>
       </c>
       <c r="L16" t="str">
-        <v>00:05:31</v>
+        <v>00:00:00</v>
       </c>
       <c r="M16" t="str">
-        <v>00:27:39</v>
+        <v>00:00:00</v>
       </c>
       <c r="N16" t="str">
-        <v>01:06:09</v>
+        <v>00:00:00</v>
       </c>
       <c r="O16" t="str">
-        <v>00:04:36</v>
+        <v>00:00:00</v>
       </c>
       <c r="P16" t="str">
-        <v>00:01:07</v>
+        <v>00:00:00</v>
       </c>
       <c r="Q16" t="str">
-        <v>00:01:29</v>
+        <v>00:00:00</v>
       </c>
       <c r="R16" t="str">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="S16" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T16" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="U16" t="str">
-        <v>00:00:44</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>E8239291</v>
+        <v>E8238166</v>
       </c>
       <c r="B17" t="str">
-        <v>E8239291_INGRID ESTEFANY GOMEZ ZAPATA_POST</v>
+        <v>E8238166 - MIREYA PAOLA REYES DUEÑAS</v>
       </c>
       <c r="C17" t="str">
         <v/>
@@ -1458,18 +1443,18 @@
         <v>0</v>
       </c>
       <c r="S17" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T17" t="str">
-        <v>GR01</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>E8237043</v>
+        <v>E8241667</v>
       </c>
       <c r="B18" t="str">
-        <v>E8237043_MILAGROS  DEL CARMEN JALA  SUPA_POST</v>
+        <v>E8241667-NOHELY MARIANA ASEIJAS FLORES</v>
       </c>
       <c r="C18" t="str">
         <v/>
@@ -1523,24 +1508,24 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T18" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>E8231789</v>
+        <v>E8240686</v>
       </c>
       <c r="B19" t="str">
-        <v>E8231789_MARITZA MARYBEL CARDENAS DIEGO_POST</v>
+        <v>E8240686 - KASSANDRA SHEYLA AGUIRRE PALOMINO</v>
       </c>
       <c r="C19" t="str">
-        <v>07:59:09</v>
+        <v/>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1549,57 +1534,51 @@
         <v>0</v>
       </c>
       <c r="H19" t="str">
-        <v>00:00:17</v>
+        <v>00:03:10</v>
       </c>
       <c r="I19" t="str">
-        <v>00:01:16</v>
+        <v>00:03:10</v>
       </c>
       <c r="J19" t="str">
-        <v>00:00:08</v>
+        <v>00:03:10</v>
       </c>
       <c r="K19" t="str">
-        <v>01:57:58</v>
+        <v>07:27:39</v>
       </c>
       <c r="L19" t="str">
-        <v>00:10:01</v>
+        <v>07:27:39</v>
       </c>
       <c r="M19" t="str">
-        <v>00:32:50</v>
+        <v>04:03:28</v>
       </c>
       <c r="N19" t="str">
-        <v>01:41:25</v>
+        <v>04:03:28</v>
       </c>
       <c r="O19" t="str">
-        <v>00:07:58</v>
+        <v>04:03:28</v>
       </c>
       <c r="P19" t="str">
-        <v>00:00:53</v>
+        <v>00:04:05</v>
       </c>
       <c r="Q19" t="str">
-        <v>00:01:07</v>
+        <v>00:05:43</v>
       </c>
       <c r="R19" t="str">
-        <v>485</v>
+        <v>0</v>
       </c>
       <c r="S19" t="str">
         <v>ACTIVO</v>
       </c>
       <c r="T19" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="U19" t="str">
-        <v>00:00:15</v>
-      </c>
-      <c r="V19" t="str">
-        <v>00:00:08</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>E8237215</v>
+        <v>E8241426</v>
       </c>
       <c r="B20" t="str">
-        <v>E8237215_JOSE CARLOS REYES PADILLA_POST</v>
+        <v>E8241426 - MARCOS DAHIR SOPLAPUCO LLAMO</v>
       </c>
       <c r="C20" t="str">
         <v/>
@@ -1650,27 +1629,27 @@
         <v>0</v>
       </c>
       <c r="S20" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T20" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>E8240596</v>
+        <v>E8241421</v>
       </c>
       <c r="B21" t="str">
-        <v>E8240596_BRYAN DAVID PAUCA YNCA_POST</v>
+        <v>E8241421 - INGRID MILAGROS SANDOVAL SANTAMARIA</v>
       </c>
       <c r="C21" t="str">
-        <v>11:59:15</v>
+        <v/>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1679,54 +1658,51 @@
         <v>0</v>
       </c>
       <c r="H21" t="str">
-        <v>00:00:31</v>
+        <v>00:00:00</v>
       </c>
       <c r="I21" t="str">
-        <v>00:02:20</v>
+        <v>00:00:00</v>
       </c>
       <c r="J21" t="str">
-        <v>00:00:12</v>
+        <v>00:00:00</v>
       </c>
       <c r="K21" t="str">
-        <v>01:29:29</v>
+        <v>00:00:00</v>
       </c>
       <c r="L21" t="str">
-        <v>00:07:18</v>
+        <v>00:00:00</v>
       </c>
       <c r="M21" t="str">
-        <v>00:40:59</v>
+        <v>00:00:00</v>
       </c>
       <c r="N21" t="str">
-        <v>01:27:28</v>
+        <v>00:00:00</v>
       </c>
       <c r="O21" t="str">
-        <v>00:05:53</v>
+        <v>00:00:00</v>
       </c>
       <c r="P21" t="str">
-        <v>00:01:17</v>
+        <v>00:00:00</v>
       </c>
       <c r="Q21" t="str">
-        <v>00:01:37</v>
+        <v>00:00:00</v>
       </c>
       <c r="R21" t="str">
-        <v>491</v>
+        <v>0</v>
       </c>
       <c r="S21" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T21" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="V21" t="str">
-        <v>00:00:54</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>E8235287</v>
+        <v>E8241407</v>
       </c>
       <c r="B22" t="str">
-        <v>E8235287_JULIO CESAR MONTORO GOMEZ_POST</v>
+        <v>E8241407 - JORDY ARNOLD FLORES BAUTISTA</v>
       </c>
       <c r="C22" t="str">
         <v/>
@@ -1777,18 +1753,18 @@
         <v>0</v>
       </c>
       <c r="S22" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T22" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>E8240636</v>
+        <v>E8238271</v>
       </c>
       <c r="B23" t="str">
-        <v>E8240636_YAHAIRA BELEN ENCARNACION SOTO_POST</v>
+        <v>E8238271 - ANITA LEONOR CERNA TORRES</v>
       </c>
       <c r="C23" t="str">
         <v/>
@@ -1842,15 +1818,15 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T23" t="str">
-        <v>GR01</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>E8232162</v>
+        <v>E8241633</v>
       </c>
       <c r="B24" t="str">
-        <v>E8232162_PAULO CESAR SANDOVAL DIAZ_POST</v>
+        <v>E8241633-ARACELY MANUTTUPA FERNANDEZ</v>
       </c>
       <c r="C24" t="str">
         <v/>
@@ -1901,27 +1877,27 @@
         <v>0</v>
       </c>
       <c r="S24" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T24" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>E8231798</v>
+        <v>E8242368</v>
       </c>
       <c r="B25" t="str">
-        <v>E8231798_KATE VALENTINA CASTILLO CUMPA_POST</v>
+        <v>JUAN RICARDO MARCELO SAN MARTIN</v>
       </c>
       <c r="C25" t="str">
-        <v>09:00:33</v>
+        <v/>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1930,66 +1906,60 @@
         <v>0</v>
       </c>
       <c r="H25" t="str">
-        <v>00:00:48</v>
+        <v>00:00:00</v>
       </c>
       <c r="I25" t="str">
-        <v>00:02:51</v>
+        <v>00:00:00</v>
       </c>
       <c r="J25" t="str">
-        <v>00:00:14</v>
+        <v>00:00:00</v>
       </c>
       <c r="K25" t="str">
-        <v>01:27:55</v>
+        <v>00:00:00</v>
       </c>
       <c r="L25" t="str">
-        <v>00:10:45</v>
+        <v>00:00:00</v>
       </c>
       <c r="M25" t="str">
-        <v>00:33:07</v>
+        <v>00:00:00</v>
       </c>
       <c r="N25" t="str">
-        <v>01:27:07</v>
+        <v>00:00:00</v>
       </c>
       <c r="O25" t="str">
-        <v>00:08:54</v>
+        <v>00:00:00</v>
       </c>
       <c r="P25" t="str">
-        <v>00:01:50</v>
+        <v>00:00:00</v>
       </c>
       <c r="Q25" t="str">
-        <v>00:02:29</v>
+        <v>00:00:00</v>
       </c>
       <c r="R25" t="str">
-        <v>527</v>
+        <v>0</v>
       </c>
       <c r="S25" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T25" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="U25" t="str">
-        <v>00:37:49</v>
-      </c>
-      <c r="V25" t="str">
-        <v>00:01:38</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>E8240609</v>
+        <v>E8241418</v>
       </c>
       <c r="B26" t="str">
-        <v>E8240609_LEONARDO LUEL FERNANDEZ FLORES_POST</v>
+        <v>E8241418 - MAYRA ILIANA EFFIO VILCABANA</v>
       </c>
       <c r="C26" t="str">
-        <v>12:04:22</v>
+        <v/>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1998,54 +1968,51 @@
         <v>0</v>
       </c>
       <c r="H26" t="str">
-        <v>00:00:59</v>
+        <v>00:00:00</v>
       </c>
       <c r="I26" t="str">
-        <v>00:02:34</v>
+        <v>00:00:00</v>
       </c>
       <c r="J26" t="str">
-        <v>00:00:09</v>
+        <v>00:00:00</v>
       </c>
       <c r="K26" t="str">
-        <v>01:50:25</v>
+        <v>00:00:00</v>
       </c>
       <c r="L26" t="str">
-        <v>00:08:15</v>
+        <v>00:00:00</v>
       </c>
       <c r="M26" t="str">
-        <v>00:28:47</v>
+        <v>00:00:00</v>
       </c>
       <c r="N26" t="str">
-        <v>01:38:08</v>
+        <v>00:00:00</v>
       </c>
       <c r="O26" t="str">
-        <v>00:07:08</v>
+        <v>00:00:00</v>
       </c>
       <c r="P26" t="str">
-        <v>00:00:56</v>
+        <v>00:00:00</v>
       </c>
       <c r="Q26" t="str">
-        <v>00:01:11</v>
+        <v>00:00:00</v>
       </c>
       <c r="R26" t="str">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="S26" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T26" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="V26" t="str">
-        <v>00:00:41</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>E8231788</v>
+        <v>E8241392</v>
       </c>
       <c r="B27" t="str">
-        <v>E8231788_STEFANNO ALESSANDRO SANCHEZ CABALLERO_POST</v>
+        <v>E8241392-DEYANIRA YAMILE CUBA MELGAR</v>
       </c>
       <c r="C27" t="str">
         <v/>
@@ -2099,15 +2066,15 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T27" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>E8240635</v>
+        <v>E8241388</v>
       </c>
       <c r="B28" t="str">
-        <v>E8240635_WALTER WLADID GUERRA LLANOS_POST</v>
+        <v>E8241388 - MARIA DEL PILAR GALINDO ALATA</v>
       </c>
       <c r="C28" t="str">
         <v/>
@@ -2161,24 +2128,24 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T28" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>E8235509</v>
+        <v>E8242104</v>
       </c>
       <c r="B29" t="str">
-        <v>E8235509_PEDRO ALBERTO CIEZA NANFARO_POST</v>
+        <v>E8242104-DENIS ANTONIO MALLQUI LEIVA</v>
       </c>
       <c r="C29" t="str">
-        <v>09:00:04</v>
+        <v/>
       </c>
       <c r="D29">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2187,57 +2154,51 @@
         <v>0</v>
       </c>
       <c r="H29" t="str">
-        <v>00:00:37</v>
+        <v>00:00:00</v>
       </c>
       <c r="I29" t="str">
-        <v>00:01:15</v>
+        <v>00:00:00</v>
       </c>
       <c r="J29" t="str">
-        <v>00:00:15</v>
+        <v>00:00:00</v>
       </c>
       <c r="K29" t="str">
-        <v>01:59:26</v>
+        <v>00:00:00</v>
       </c>
       <c r="L29" t="str">
-        <v>00:12:13</v>
+        <v>00:00:00</v>
       </c>
       <c r="M29" t="str">
-        <v>00:40:51</v>
+        <v>00:00:00</v>
       </c>
       <c r="N29" t="str">
-        <v>01:56:30</v>
+        <v>00:00:00</v>
       </c>
       <c r="O29" t="str">
-        <v>00:10:43</v>
+        <v>00:00:00</v>
       </c>
       <c r="P29" t="str">
-        <v>00:01:19</v>
+        <v>00:00:00</v>
       </c>
       <c r="Q29" t="str">
-        <v>00:01:39</v>
+        <v>00:00:00</v>
       </c>
       <c r="R29" t="str">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="S29" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T29" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="U29" t="str">
-        <v>00:22:32</v>
-      </c>
-      <c r="V29" t="str">
-        <v>00:00:18</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>E8232173</v>
+        <v>E8242388</v>
       </c>
       <c r="B30" t="str">
-        <v>E8232173_GERALDIN ARACELI REYNOSO HUAMAN_POST</v>
+        <v>GERALDINE ALMENDRA RUIZ FLORES</v>
       </c>
       <c r="C30" t="str">
         <v/>
@@ -2291,24 +2252,24 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T30" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>E8240610</v>
+        <v>E8239621</v>
       </c>
       <c r="B31" t="str">
-        <v>E8240610_LESLIE MILAGROS ESQUEN GINOCCHIO_POST</v>
+        <v>E8239621 - TRACY MABEL DIAZ FLORES</v>
       </c>
       <c r="C31" t="str">
-        <v>11:54:32</v>
+        <v/>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2317,57 +2278,54 @@
         <v>0</v>
       </c>
       <c r="H31" t="str">
-        <v>00:01:18</v>
+        <v>00:00:00</v>
       </c>
       <c r="I31" t="str">
-        <v>00:04:11</v>
+        <v>00:00:00</v>
       </c>
       <c r="J31" t="str">
-        <v>00:00:09</v>
+        <v>00:00:00</v>
       </c>
       <c r="K31" t="str">
-        <v>01:48:46</v>
+        <v>00:00:00</v>
       </c>
       <c r="L31" t="str">
-        <v>00:16:00</v>
+        <v>00:00:00</v>
       </c>
       <c r="M31" t="str">
-        <v>00:38:59</v>
+        <v>00:00:00</v>
       </c>
       <c r="N31" t="str">
-        <v>01:47:19</v>
+        <v>00:00:00</v>
       </c>
       <c r="O31" t="str">
-        <v>00:13:52</v>
+        <v>00:00:00</v>
       </c>
       <c r="P31" t="str">
-        <v>00:01:44</v>
+        <v>00:00:00</v>
       </c>
       <c r="Q31" t="str">
-        <v>00:02:17</v>
+        <v>00:00:00</v>
       </c>
       <c r="R31" t="str">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="S31" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T31" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="V31" t="str">
-        <v>00:00:58</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>E8235331</v>
+        <v>E8242385</v>
       </c>
       <c r="B32" t="str">
-        <v>E8235331_MARIA DEL CARMEN CHAPOÑAN CHACON_PRE</v>
+        <v>E8242385 - MARIA ALEJANDRA ALVAREZ PRECIADO</v>
       </c>
       <c r="C32" t="str">
-        <v>20:30:02</v>
+        <v/>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2412,30 +2370,30 @@
         <v>00:00:00</v>
       </c>
       <c r="R32" t="str">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="S32" t="str">
         <v>ACTIVO</v>
       </c>
       <c r="T32" t="str">
-        <v>GR07</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>E8241371</v>
+        <v>E8240410</v>
       </c>
       <c r="B33" t="str">
-        <v>E8241371_LIZETH ESTRELLA ROMERO QUISPE_POST</v>
+        <v>E8240410-ANDRE FRANCISCO RIVERO LOZANO</v>
       </c>
       <c r="C33" t="str">
         <v/>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2444,51 +2402,51 @@
         <v>0</v>
       </c>
       <c r="H33" t="str">
-        <v>00:00:00</v>
+        <v>00:00:32</v>
       </c>
       <c r="I33" t="str">
-        <v>00:00:00</v>
+        <v>00:00:32</v>
       </c>
       <c r="J33" t="str">
-        <v>00:00:00</v>
+        <v>00:00:32</v>
       </c>
       <c r="K33" t="str">
-        <v>00:00:00</v>
+        <v>02:42:22</v>
       </c>
       <c r="L33" t="str">
-        <v>00:00:00</v>
+        <v>02:42:22</v>
       </c>
       <c r="M33" t="str">
-        <v>00:00:00</v>
+        <v>00:37:30</v>
       </c>
       <c r="N33" t="str">
-        <v>00:00:00</v>
+        <v>00:37:30</v>
       </c>
       <c r="O33" t="str">
-        <v>00:00:00</v>
+        <v>00:37:30</v>
       </c>
       <c r="P33" t="str">
-        <v>00:00:00</v>
+        <v>00:00:59</v>
       </c>
       <c r="Q33" t="str">
-        <v>00:00:00</v>
+        <v>00:01:09</v>
       </c>
       <c r="R33" t="str">
         <v>0</v>
       </c>
       <c r="S33" t="str">
-        <v>DESCONECTADO</v>
+        <v>ACTIVO</v>
       </c>
       <c r="T33" t="str">
-        <v>GR01</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>E8240600</v>
+        <v>E8241653</v>
       </c>
       <c r="B34" t="str">
-        <v>E8240600_DONNA YOU SALAZAR HUAYLLAPUMA_POST</v>
+        <v>E8241653 - LEONEL YAHIR RODAS SANCHEZ</v>
       </c>
       <c r="C34" t="str">
         <v/>
@@ -2539,18 +2497,18 @@
         <v>0</v>
       </c>
       <c r="S34" t="str">
-        <v>DESCONECTADO</v>
+        <v>ACTIVO</v>
       </c>
       <c r="T34" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>E8241370</v>
+        <v>E8241410</v>
       </c>
       <c r="B35" t="str">
-        <v>E8241370_GIOVANNA KAROL PRIETO CANAHUIRE_POST</v>
+        <v>E8241410 - GUISSELLA PAOLA PACHECO ELGUERA</v>
       </c>
       <c r="C35" t="str">
         <v/>
@@ -2604,24 +2562,24 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T35" t="str">
-        <v>GR01</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>E8232172</v>
+        <v>E8241673</v>
       </c>
       <c r="B36" t="str">
-        <v>E8232172_ ALDO GONZALO BUSTINZA BRICEÑO_POST</v>
+        <v>E8241673-SAMANTHA GRECIA PANDAL TACUCHI</v>
       </c>
       <c r="C36" t="str">
         <v/>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2630,51 +2588,51 @@
         <v>0</v>
       </c>
       <c r="H36" t="str">
-        <v>00:00:00</v>
+        <v>00:03:09</v>
       </c>
       <c r="I36" t="str">
-        <v>00:00:00</v>
+        <v>00:03:47</v>
       </c>
       <c r="J36" t="str">
-        <v>00:00:00</v>
+        <v>00:02:45</v>
       </c>
       <c r="K36" t="str">
-        <v>00:00:00</v>
+        <v>04:16:42</v>
       </c>
       <c r="L36" t="str">
-        <v>00:00:00</v>
+        <v>00:05:40</v>
       </c>
       <c r="M36" t="str">
-        <v>00:00:00</v>
+        <v>01:27:11</v>
       </c>
       <c r="N36" t="str">
-        <v>00:00:00</v>
+        <v>03:05:48</v>
       </c>
       <c r="O36" t="str">
-        <v>00:00:00</v>
+        <v>00:01:05</v>
       </c>
       <c r="P36" t="str">
-        <v>00:00:00</v>
+        <v>00:11:06</v>
       </c>
       <c r="Q36" t="str">
-        <v>00:00:00</v>
+        <v>00:15:03</v>
       </c>
       <c r="R36" t="str">
         <v>0</v>
       </c>
       <c r="S36" t="str">
-        <v>DESCONECTADO</v>
+        <v>ACTIVO</v>
       </c>
       <c r="T36" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>E8235505</v>
+        <v>E8241395</v>
       </c>
       <c r="B37" t="str">
-        <v>E8235505_MHEL CHANTAL DIOSES AGÜERO_POST</v>
+        <v>E8241395 - MARIA PIA ISABEL ANTON GARCIA</v>
       </c>
       <c r="C37" t="str">
         <v/>
@@ -2728,24 +2686,24 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T37" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>E8238476</v>
+        <v>E8233272</v>
       </c>
       <c r="B38" t="str">
-        <v>E8238476_GEMMA ESTEPHANIA ZAVALA HERRERA_POST</v>
+        <v>E8233272-CIELO ISABEL BACA ALVAREZ</v>
       </c>
       <c r="C38" t="str">
         <v/>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2754,34 +2712,34 @@
         <v>0</v>
       </c>
       <c r="H38" t="str">
-        <v>00:00:00</v>
+        <v>00:00:27</v>
       </c>
       <c r="I38" t="str">
-        <v>00:00:00</v>
+        <v>00:00:57</v>
       </c>
       <c r="J38" t="str">
-        <v>00:00:00</v>
+        <v>00:00:10</v>
       </c>
       <c r="K38" t="str">
-        <v>00:00:00</v>
+        <v>03:17:08</v>
       </c>
       <c r="L38" t="str">
-        <v>00:00:00</v>
+        <v>00:26:27</v>
       </c>
       <c r="M38" t="str">
-        <v>00:00:00</v>
+        <v>00:53:43</v>
       </c>
       <c r="N38" t="str">
-        <v>00:00:00</v>
+        <v>01:42:31</v>
       </c>
       <c r="O38" t="str">
-        <v>00:00:00</v>
+        <v>00:05:36</v>
       </c>
       <c r="P38" t="str">
-        <v>00:00:00</v>
+        <v>00:02:22</v>
       </c>
       <c r="Q38" t="str">
-        <v>00:00:00</v>
+        <v>00:03:29</v>
       </c>
       <c r="R38" t="str">
         <v>0</v>
@@ -2790,15 +2748,15 @@
         <v>ACTIVO</v>
       </c>
       <c r="T38" t="str">
-        <v>GR01</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>E8237047</v>
+        <v>E8241658</v>
       </c>
       <c r="B39" t="str">
-        <v>E8237047_FLOR DE MARIA  YANELA AÑAMURO  MANGO_POST</v>
+        <v>E8241658-LUCERO REYNA ESTHER CACERES HERAS</v>
       </c>
       <c r="C39" t="str">
         <v/>
@@ -2852,24 +2810,24 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T39" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>E8231040</v>
+        <v>E8239614</v>
       </c>
       <c r="B40" t="str">
-        <v>E8231040_ALYSSON ROSAURA UCEDA GAVILANO_POST</v>
+        <v>E8239614 - JUAN JHEAMPIER MORALES APOLITANO</v>
       </c>
       <c r="C40" t="str">
-        <v>07:59:43</v>
+        <v/>
       </c>
       <c r="D40">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2878,54 +2836,51 @@
         <v>0</v>
       </c>
       <c r="H40" t="str">
-        <v>00:00:26</v>
+        <v>00:00:00</v>
       </c>
       <c r="I40" t="str">
-        <v>00:03:51</v>
+        <v>00:00:00</v>
       </c>
       <c r="J40" t="str">
-        <v>00:00:05</v>
+        <v>00:00:00</v>
       </c>
       <c r="K40" t="str">
-        <v>01:16:29</v>
+        <v>00:00:00</v>
       </c>
       <c r="L40" t="str">
-        <v>00:03:36</v>
+        <v>00:00:00</v>
       </c>
       <c r="M40" t="str">
-        <v>00:27:45</v>
+        <v>00:00:00</v>
       </c>
       <c r="N40" t="str">
-        <v>01:14:03</v>
+        <v>00:00:00</v>
       </c>
       <c r="O40" t="str">
-        <v>00:03:03</v>
+        <v>00:00:00</v>
       </c>
       <c r="P40" t="str">
-        <v>00:01:16</v>
+        <v>00:00:00</v>
       </c>
       <c r="Q40" t="str">
-        <v>00:01:36</v>
+        <v>00:00:00</v>
       </c>
       <c r="R40" t="str">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="S40" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T40" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="U40" t="str">
-        <v>00:01:17</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>E8240621</v>
+        <v>E8241669</v>
       </c>
       <c r="B41" t="str">
-        <v>E8240621_MIGUEL ALONSO CASUSOL SUYON_POST</v>
+        <v>E8241669 - RENATO ELIAS HUAYTAN ALFARO</v>
       </c>
       <c r="C41" t="str">
         <v/>
@@ -2979,15 +2934,15 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T41" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>E8239289</v>
+        <v>E8241663</v>
       </c>
       <c r="B42" t="str">
-        <v>E8239289_GERSON JOEL BUSTAMANTE QUIROZ_POST</v>
+        <v>E8241663-MILAGROS DE FATIMA OTOYA CAMACHO</v>
       </c>
       <c r="C42" t="str">
         <v/>
@@ -3041,15 +2996,15 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T42" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>E8240631</v>
+        <v>E8242084</v>
       </c>
       <c r="B43" t="str">
-        <v>E8240631_RUTH JACKELINI FERNANDEZ URIBE_POST</v>
+        <v>E8242084-JHULISA ESMERALDA VILLAGARAY CASANCA</v>
       </c>
       <c r="C43" t="str">
         <v/>
@@ -3100,27 +3055,27 @@
         <v>0</v>
       </c>
       <c r="S43" t="str">
-        <v>DESCONECTADO</v>
+        <v>ACTIVO</v>
       </c>
       <c r="T43" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>E8239866</v>
+        <v>E8241756</v>
       </c>
       <c r="B44" t="str">
-        <v>E8239866_BRENDA CAROLINA CORDOVA PINTADO_PRE</v>
+        <v>E8241756-JIMMY JOEL CHAVEZ ALVA</v>
       </c>
       <c r="C44" t="str">
-        <v>14:50:27</v>
+        <v/>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3129,60 +3084,60 @@
         <v>0</v>
       </c>
       <c r="H44" t="str">
-        <v>00:00:54</v>
+        <v>00:00:00</v>
       </c>
       <c r="I44" t="str">
-        <v>00:03:22</v>
+        <v>00:00:00</v>
       </c>
       <c r="J44" t="str">
-        <v>00:00:13</v>
+        <v>00:00:00</v>
       </c>
       <c r="K44" t="str">
-        <v>00:55:20</v>
+        <v>00:00:00</v>
       </c>
       <c r="L44" t="str">
-        <v>00:12:22</v>
+        <v>00:00:00</v>
       </c>
       <c r="M44" t="str">
-        <v>00:31:52</v>
+        <v>00:00:00</v>
       </c>
       <c r="N44" t="str">
-        <v>00:54:39</v>
+        <v>00:00:00</v>
       </c>
       <c r="O44" t="str">
-        <v>00:11:44</v>
+        <v>00:00:00</v>
       </c>
       <c r="P44" t="str">
-        <v>00:01:37</v>
+        <v>00:00:00</v>
       </c>
       <c r="Q44" t="str">
-        <v>00:01:56</v>
+        <v>00:00:00</v>
       </c>
       <c r="R44" t="str">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S44" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T44" t="str">
-        <v>GR07</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>E8232983</v>
+        <v>E8238839</v>
       </c>
       <c r="B45" t="str">
-        <v>E8232983_ALEJANDRA YAMILE SALDARRIAGA TENICELA_POST</v>
+        <v>E8238839 - MARIABE FUENTES ACOSTA</v>
       </c>
       <c r="C45" t="str">
-        <v>08:55:07</v>
+        <v/>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -3191,63 +3146,60 @@
         <v>0</v>
       </c>
       <c r="H45" t="str">
-        <v>00:00:25</v>
+        <v>00:00:00</v>
       </c>
       <c r="I45" t="str">
-        <v>00:00:40</v>
+        <v>00:00:00</v>
       </c>
       <c r="J45" t="str">
-        <v>00:00:14</v>
+        <v>00:00:00</v>
       </c>
       <c r="K45" t="str">
-        <v>01:21:27</v>
+        <v>00:00:00</v>
       </c>
       <c r="L45" t="str">
-        <v>00:18:46</v>
+        <v>00:00:00</v>
       </c>
       <c r="M45" t="str">
-        <v>00:33:51</v>
+        <v>00:00:00</v>
       </c>
       <c r="N45" t="str">
-        <v>01:19:49</v>
+        <v>00:00:00</v>
       </c>
       <c r="O45" t="str">
-        <v>00:16:00</v>
+        <v>00:00:00</v>
       </c>
       <c r="P45" t="str">
-        <v>00:01:18</v>
+        <v>00:00:00</v>
       </c>
       <c r="Q45" t="str">
-        <v>00:02:03</v>
+        <v>00:00:00</v>
       </c>
       <c r="R45" t="str">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="S45" t="str">
         <v>DESCONECTADO</v>
       </c>
       <c r="T45" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="U45" t="str">
-        <v>00:00:29</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>E8240603</v>
+        <v>E8242387</v>
       </c>
       <c r="B46" t="str">
-        <v>E8240603_GRECIA ELIZABETH RUIZ COVEÑAS_POST</v>
+        <v>E8242387-JAVIER ALEJANDRO ELIAS BALLADARES</v>
       </c>
       <c r="C46" t="str">
-        <v>12:03:12</v>
+        <v/>
       </c>
       <c r="D46">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -3256,54 +3208,51 @@
         <v>0</v>
       </c>
       <c r="H46" t="str">
-        <v>00:00:53</v>
+        <v>00:00:00</v>
       </c>
       <c r="I46" t="str">
-        <v>00:04:02</v>
+        <v>00:00:00</v>
       </c>
       <c r="J46" t="str">
-        <v>00:00:08</v>
+        <v>00:00:00</v>
       </c>
       <c r="K46" t="str">
-        <v>01:31:18</v>
+        <v>00:00:00</v>
       </c>
       <c r="L46" t="str">
-        <v>00:16:09</v>
+        <v>00:00:00</v>
       </c>
       <c r="M46" t="str">
-        <v>00:35:13</v>
+        <v>00:00:00</v>
       </c>
       <c r="N46" t="str">
-        <v>01:19:23</v>
+        <v>00:00:00</v>
       </c>
       <c r="O46" t="str">
-        <v>00:15:11</v>
+        <v>00:00:00</v>
       </c>
       <c r="P46" t="str">
-        <v>00:01:28</v>
+        <v>00:00:00</v>
       </c>
       <c r="Q46" t="str">
-        <v>00:01:57</v>
+        <v>00:00:00</v>
       </c>
       <c r="R46" t="str">
-        <v>458</v>
+        <v>0</v>
       </c>
       <c r="S46" t="str">
         <v>ACTIVO</v>
       </c>
       <c r="T46" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="V46" t="str">
-        <v>00:08:57</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>E8239647</v>
+        <v>E8241640</v>
       </c>
       <c r="B47" t="str">
-        <v>E8239647_MARK ANTHONY GALLEGOS MEZA_POST</v>
+        <v>DIANA GABRIELA PALACIOS DEL CASTILLO</v>
       </c>
       <c r="C47" t="str">
         <v/>
@@ -3354,27 +3303,27 @@
         <v>0</v>
       </c>
       <c r="S47" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T47" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>E8240626</v>
+        <v>E8237728</v>
       </c>
       <c r="B48" t="str">
-        <v>E8240626_MIRIAM DAYANA ROJAS UTURUNCO_POST</v>
+        <v>E8237728 - CHANTAL ALEXANDRA CAMACHO BARRIONUEVO</v>
       </c>
       <c r="C48" t="str">
         <v/>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3383,51 +3332,51 @@
         <v>0</v>
       </c>
       <c r="H48" t="str">
-        <v>00:00:00</v>
+        <v>00:00:15</v>
       </c>
       <c r="I48" t="str">
-        <v>00:00:00</v>
+        <v>00:00:27</v>
       </c>
       <c r="J48" t="str">
-        <v>00:00:00</v>
+        <v>00:00:09</v>
       </c>
       <c r="K48" t="str">
-        <v>00:00:00</v>
+        <v>04:46:04</v>
       </c>
       <c r="L48" t="str">
-        <v>00:00:00</v>
+        <v>00:53:52</v>
       </c>
       <c r="M48" t="str">
-        <v>00:00:00</v>
+        <v>01:07:31</v>
       </c>
       <c r="N48" t="str">
-        <v>00:00:00</v>
+        <v>01:49:12</v>
       </c>
       <c r="O48" t="str">
-        <v>00:00:00</v>
+        <v>00:21:02</v>
       </c>
       <c r="P48" t="str">
-        <v>00:00:00</v>
+        <v>00:00:51</v>
       </c>
       <c r="Q48" t="str">
-        <v>00:00:00</v>
+        <v>00:01:03</v>
       </c>
       <c r="R48" t="str">
         <v>0</v>
       </c>
       <c r="S48" t="str">
-        <v>DESCONECTADO</v>
+        <v>ACTIVO</v>
       </c>
       <c r="T48" t="str">
-        <v>GR01</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>E8236385</v>
+        <v>E8238263</v>
       </c>
       <c r="B49" t="str">
-        <v>E8236385_KARIN TATIANA CARRION PINZON_POST</v>
+        <v>E8238263 - PEDRO VERA PINEDO</v>
       </c>
       <c r="C49" t="str">
         <v/>
@@ -3478,27 +3427,27 @@
         <v>0</v>
       </c>
       <c r="S49" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T49" t="str">
-        <v>GR01</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>E8237036</v>
+        <v>E8240340</v>
       </c>
       <c r="B50" t="str">
-        <v>E8237036_DIANA  ANGIE VILAVILA  MACEDO_POST</v>
+        <v>E8240340 - DIANA LISSETH TORRES LOPEZ</v>
       </c>
       <c r="C50" t="str">
         <v/>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3507,51 +3456,51 @@
         <v>0</v>
       </c>
       <c r="H50" t="str">
-        <v>00:00:00</v>
+        <v>00:00:37</v>
       </c>
       <c r="I50" t="str">
-        <v>00:00:00</v>
+        <v>00:01:16</v>
       </c>
       <c r="J50" t="str">
-        <v>00:00:00</v>
+        <v>00:00:10</v>
       </c>
       <c r="K50" t="str">
-        <v>00:00:00</v>
+        <v>08:04:42</v>
       </c>
       <c r="L50" t="str">
-        <v>00:00:00</v>
+        <v>02:42:43</v>
       </c>
       <c r="M50" t="str">
-        <v>00:00:00</v>
+        <v>02:23:56</v>
       </c>
       <c r="N50" t="str">
-        <v>00:00:00</v>
+        <v>03:24:42</v>
       </c>
       <c r="O50" t="str">
-        <v>00:00:00</v>
+        <v>00:57:06</v>
       </c>
       <c r="P50" t="str">
-        <v>00:00:00</v>
+        <v>00:01:28</v>
       </c>
       <c r="Q50" t="str">
-        <v>00:00:00</v>
+        <v>00:01:46</v>
       </c>
       <c r="R50" t="str">
         <v>0</v>
       </c>
       <c r="S50" t="str">
-        <v>DESCONECTADO</v>
+        <v>ACTIVO</v>
       </c>
       <c r="T50" t="str">
-        <v>GR01</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>E8240612</v>
+        <v>E8238273</v>
       </c>
       <c r="B51" t="str">
-        <v>E8240612_LUIS ALBERTO MONTENEGRO DELGADO_POST</v>
+        <v>E8238273 - ESTEFANY ELIZABETH TERRONES YOVERA</v>
       </c>
       <c r="C51" t="str">
         <v/>
@@ -3605,24 +3554,24 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T51" t="str">
-        <v>GR01</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>E8240131</v>
+        <v>E8241389</v>
       </c>
       <c r="B52" t="str">
-        <v>E8240131_SARITA LUSDINA GUZMAN CHAVESTA_PRE</v>
+        <v>E8241389 - MARA ALEJANDRA GOICOCHEA FARRO</v>
       </c>
       <c r="C52" t="str">
-        <v>08:31:07</v>
+        <v/>
       </c>
       <c r="D52">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3631,54 +3580,51 @@
         <v>0</v>
       </c>
       <c r="H52" t="str">
-        <v>00:00:56</v>
+        <v>00:00:00</v>
       </c>
       <c r="I52" t="str">
-        <v>00:06:02</v>
+        <v>00:00:00</v>
       </c>
       <c r="J52" t="str">
-        <v>00:00:06</v>
+        <v>00:00:00</v>
       </c>
       <c r="K52" t="str">
-        <v>02:05:56</v>
+        <v>00:00:00</v>
       </c>
       <c r="L52" t="str">
-        <v>00:08:24</v>
+        <v>00:00:00</v>
       </c>
       <c r="M52" t="str">
-        <v>00:26:42</v>
+        <v>00:00:00</v>
       </c>
       <c r="N52" t="str">
-        <v>01:23:18</v>
+        <v>00:00:00</v>
       </c>
       <c r="O52" t="str">
-        <v>00:04:08</v>
+        <v>00:00:00</v>
       </c>
       <c r="P52" t="str">
-        <v>00:01:46</v>
+        <v>00:00:00</v>
       </c>
       <c r="Q52" t="str">
-        <v>00:02:10</v>
+        <v>00:00:00</v>
       </c>
       <c r="R52" t="str">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="S52" t="str">
         <v>ACTIVO</v>
       </c>
       <c r="T52" t="str">
-        <v>GR07</v>
-      </c>
-      <c r="W52" t="str">
-        <v>00:09:38</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>E8240608</v>
+        <v>E8242090</v>
       </c>
       <c r="B53" t="str">
-        <v>E8240608_JOSE MARTIN ANGELDONES REJAS_POST</v>
+        <v>XIOMARA MILDREDTH ROJAS VILLAROEL</v>
       </c>
       <c r="C53" t="str">
         <v/>
@@ -3732,24 +3678,24 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T53" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>E8232176</v>
+        <v>E8241400</v>
       </c>
       <c r="B54" t="str">
-        <v>E8232176_JUAN DANIEL JULCA BARRIENTOS_POST</v>
+        <v>E8241400 - ALEXIS ALONSO ENRIQUEZ FERNANDEZ</v>
       </c>
       <c r="C54" t="str">
-        <v>08:03:34</v>
+        <v/>
       </c>
       <c r="D54">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3758,66 +3704,60 @@
         <v>0</v>
       </c>
       <c r="H54" t="str">
-        <v>00:00:21</v>
+        <v>00:00:00</v>
       </c>
       <c r="I54" t="str">
-        <v>00:00:54</v>
+        <v>00:00:00</v>
       </c>
       <c r="J54" t="str">
-        <v>00:00:09</v>
+        <v>00:00:00</v>
       </c>
       <c r="K54" t="str">
-        <v>01:57:54</v>
+        <v>00:00:00</v>
       </c>
       <c r="L54" t="str">
-        <v>00:19:16</v>
+        <v>00:00:00</v>
       </c>
       <c r="M54" t="str">
-        <v>00:40:08</v>
+        <v>00:00:00</v>
       </c>
       <c r="N54" t="str">
-        <v>01:49:00</v>
+        <v>00:00:00</v>
       </c>
       <c r="O54" t="str">
-        <v>00:17:59</v>
+        <v>00:00:00</v>
       </c>
       <c r="P54" t="str">
-        <v>00:01:13</v>
+        <v>00:00:00</v>
       </c>
       <c r="Q54" t="str">
-        <v>00:01:35</v>
+        <v>00:00:00</v>
       </c>
       <c r="R54" t="str">
-        <v>467</v>
+        <v>0</v>
       </c>
       <c r="S54" t="str">
         <v>DESCONECTADO</v>
       </c>
       <c r="T54" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="U54" t="str">
-        <v>00:02:08</v>
-      </c>
-      <c r="V54" t="str">
-        <v>00:33:36</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>E8236069</v>
+        <v>E8233643</v>
       </c>
       <c r="B55" t="str">
-        <v>E8236069_ALONDRA ALEJANDRA SANCHEZ GOMEZ_POST</v>
+        <v>E8233643 - VICTOR JOSE HERNANDEZ TERAN</v>
       </c>
       <c r="C55" t="str">
-        <v>11:59:23</v>
+        <v/>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3826,63 +3766,60 @@
         <v>0</v>
       </c>
       <c r="H55" t="str">
-        <v>00:01:51</v>
+        <v>00:00:00</v>
       </c>
       <c r="I55" t="str">
-        <v>00:06:58</v>
+        <v>00:00:00</v>
       </c>
       <c r="J55" t="str">
-        <v>00:00:17</v>
+        <v>00:00:00</v>
       </c>
       <c r="K55" t="str">
-        <v>02:36:21</v>
+        <v>00:00:00</v>
       </c>
       <c r="L55" t="str">
-        <v>00:11:11</v>
+        <v>00:00:00</v>
       </c>
       <c r="M55" t="str">
-        <v>00:37:14</v>
+        <v>00:00:00</v>
       </c>
       <c r="N55" t="str">
-        <v>02:07:56</v>
+        <v>00:00:00</v>
       </c>
       <c r="O55" t="str">
-        <v>00:09:48</v>
+        <v>00:00:00</v>
       </c>
       <c r="P55" t="str">
-        <v>00:01:25</v>
+        <v>00:00:00</v>
       </c>
       <c r="Q55" t="str">
-        <v>00:01:52</v>
+        <v>00:00:00</v>
       </c>
       <c r="R55" t="str">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="S55" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T55" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="V55" t="str">
-        <v>00:01:16</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>E8241204</v>
+        <v>E8232075</v>
       </c>
       <c r="B56" t="str">
-        <v>E8241204_TERESITA DE JESUS MERINO HUAMAN_POST</v>
+        <v>E8232075 - ANTONY BRYAN JESUS CHANCA LARA</v>
       </c>
       <c r="C56" t="str">
-        <v>11:59:19</v>
+        <v>14:37:36</v>
       </c>
       <c r="D56">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3891,60 +3828,60 @@
         <v>0</v>
       </c>
       <c r="H56" t="str">
-        <v>00:00:40</v>
+        <v>00:00:18</v>
       </c>
       <c r="I56" t="str">
-        <v>00:04:25</v>
+        <v>00:00:30</v>
       </c>
       <c r="J56" t="str">
-        <v>00:00:11</v>
+        <v>00:00:07</v>
       </c>
       <c r="K56" t="str">
-        <v>01:02:22</v>
+        <v>08:39:31</v>
       </c>
       <c r="L56" t="str">
-        <v>00:03:32</v>
+        <v>02:36:31</v>
       </c>
       <c r="M56" t="str">
-        <v>00:20:20</v>
+        <v>05:07:40</v>
       </c>
       <c r="N56" t="str">
-        <v>00:59:07</v>
+        <v>08:39:21</v>
       </c>
       <c r="O56" t="str">
-        <v>00:01:45</v>
+        <v>01:22:17</v>
       </c>
       <c r="P56" t="str">
-        <v>00:00:49</v>
+        <v>00:03:50</v>
       </c>
       <c r="Q56" t="str">
-        <v>00:01:05</v>
+        <v>00:04:52</v>
       </c>
       <c r="R56" t="str">
-        <v>491</v>
+        <v>0</v>
       </c>
       <c r="S56" t="str">
         <v>ACTIVO</v>
       </c>
       <c r="T56" t="str">
-        <v>GR01</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>E8240620</v>
+        <v>E8241645</v>
       </c>
       <c r="B57" t="str">
-        <v>E8240620_MELINA LAZO RODRIGUEZ_POST</v>
+        <v>E8241645-GERARDO ALEXIS LAZOCRUZATT ESPINOZA</v>
       </c>
       <c r="C57" t="str">
-        <v>12:07:29</v>
+        <v/>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3953,63 +3890,60 @@
         <v>0</v>
       </c>
       <c r="H57" t="str">
-        <v>00:01:06</v>
+        <v>00:00:00</v>
       </c>
       <c r="I57" t="str">
-        <v>00:02:34</v>
+        <v>00:00:00</v>
       </c>
       <c r="J57" t="str">
-        <v>00:00:20</v>
+        <v>00:00:00</v>
       </c>
       <c r="K57" t="str">
-        <v>01:29:19</v>
+        <v>00:00:00</v>
       </c>
       <c r="L57" t="str">
-        <v>00:36:09</v>
+        <v>00:00:00</v>
       </c>
       <c r="M57" t="str">
-        <v>00:54:01</v>
+        <v>00:00:00</v>
       </c>
       <c r="N57" t="str">
-        <v>01:26:53</v>
+        <v>00:00:00</v>
       </c>
       <c r="O57" t="str">
-        <v>00:32:42</v>
+        <v>00:00:00</v>
       </c>
       <c r="P57" t="str">
-        <v>00:01:56</v>
+        <v>00:00:00</v>
       </c>
       <c r="Q57" t="str">
-        <v>00:02:46</v>
+        <v>00:00:00</v>
       </c>
       <c r="R57" t="str">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="S57" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T57" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="U57" t="str">
-        <v>00:33:18</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>E8233744</v>
+        <v>E8241409</v>
       </c>
       <c r="B58" t="str">
-        <v>E8233744_ANDREA REBECA DE LA CRUZ LLERENA_POST</v>
+        <v>E8241409 - HEVER ALFREDO TORRES VILLALOBOS</v>
       </c>
       <c r="C58" t="str">
-        <v>09:06:12</v>
+        <v/>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -4018,63 +3952,60 @@
         <v>0</v>
       </c>
       <c r="H58" t="str">
-        <v>00:00:49</v>
+        <v>00:00:00</v>
       </c>
       <c r="I58" t="str">
-        <v>00:02:28</v>
+        <v>00:00:00</v>
       </c>
       <c r="J58" t="str">
-        <v>00:00:14</v>
+        <v>00:00:00</v>
       </c>
       <c r="K58" t="str">
-        <v>01:58:32</v>
+        <v>00:00:00</v>
       </c>
       <c r="L58" t="str">
-        <v>00:35:27</v>
+        <v>00:00:00</v>
       </c>
       <c r="M58" t="str">
-        <v>00:58:36</v>
+        <v>00:00:00</v>
       </c>
       <c r="N58" t="str">
-        <v>01:56:31</v>
+        <v>00:00:00</v>
       </c>
       <c r="O58" t="str">
-        <v>00:34:23</v>
+        <v>00:00:00</v>
       </c>
       <c r="P58" t="str">
-        <v>00:01:54</v>
+        <v>00:00:00</v>
       </c>
       <c r="Q58" t="str">
-        <v>00:02:29</v>
+        <v>00:00:00</v>
       </c>
       <c r="R58" t="str">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="S58" t="str">
         <v>DESCONECTADO</v>
       </c>
       <c r="T58" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="U58" t="str">
-        <v>00:18:53</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>E8235503</v>
+        <v>E8232108</v>
       </c>
       <c r="B59" t="str">
-        <v>E8235503_LUZ SOFIA CABREJOS MIJA_POST</v>
+        <v>E8232108 - KATHERINE FLOR ENCISO ALARCON</v>
       </c>
       <c r="C59" t="str">
-        <v>11:43:23</v>
+        <v>09:48:15</v>
       </c>
       <c r="D59">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E59">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -4083,66 +4014,63 @@
         <v>0</v>
       </c>
       <c r="H59" t="str">
-        <v>00:01:08</v>
+        <v>00:01:12</v>
       </c>
       <c r="I59" t="str">
-        <v>00:09:34</v>
+        <v>00:04:13</v>
       </c>
       <c r="J59" t="str">
-        <v>00:00:09</v>
+        <v>00:00:03</v>
       </c>
       <c r="K59" t="str">
-        <v>02:04:45</v>
+        <v>23:15:17</v>
       </c>
       <c r="L59" t="str">
-        <v>00:04:16</v>
+        <v>01:18:26</v>
       </c>
       <c r="M59" t="str">
-        <v>00:29:05</v>
+        <v>02:18:19</v>
       </c>
       <c r="N59" t="str">
-        <v>01:57:58</v>
+        <v>06:09:43</v>
       </c>
       <c r="O59" t="str">
-        <v>00:03:11</v>
+        <v>00:42:18</v>
       </c>
       <c r="P59" t="str">
-        <v>00:01:13</v>
+        <v>00:01:42</v>
       </c>
       <c r="Q59" t="str">
-        <v>00:01:34</v>
+        <v>00:01:51</v>
       </c>
       <c r="R59" t="str">
-        <v>438</v>
+        <v>28</v>
       </c>
       <c r="S59" t="str">
         <v>ACTIVO</v>
       </c>
       <c r="T59" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="U59" t="str">
-        <v>00:00:07</v>
+        <v>GR02</v>
       </c>
       <c r="V59" t="str">
-        <v>00:02:25</v>
+        <v>00:25:59</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>E8232178</v>
+        <v>E8241664</v>
       </c>
       <c r="B60" t="str">
-        <v>E8232178_YENY CRUZ QUISPE_POST</v>
+        <v>E8241664-MITCHELL ABRAHAM CORNEJO JAIME</v>
       </c>
       <c r="C60" t="str">
-        <v>09:00:07</v>
+        <v/>
       </c>
       <c r="D60">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -4151,66 +4079,60 @@
         <v>0</v>
       </c>
       <c r="H60" t="str">
-        <v>00:00:21</v>
+        <v>00:00:00</v>
       </c>
       <c r="I60" t="str">
-        <v>00:00:54</v>
+        <v>00:00:00</v>
       </c>
       <c r="J60" t="str">
-        <v>00:00:08</v>
+        <v>00:00:00</v>
       </c>
       <c r="K60" t="str">
-        <v>01:22:53</v>
+        <v>00:00:00</v>
       </c>
       <c r="L60" t="str">
-        <v>00:07:36</v>
+        <v>00:00:00</v>
       </c>
       <c r="M60" t="str">
-        <v>00:28:44</v>
+        <v>00:00:00</v>
       </c>
       <c r="N60" t="str">
-        <v>01:22:11</v>
+        <v>00:00:00</v>
       </c>
       <c r="O60" t="str">
-        <v>00:04:41</v>
+        <v>00:00:00</v>
       </c>
       <c r="P60" t="str">
-        <v>00:01:06</v>
+        <v>00:00:00</v>
       </c>
       <c r="Q60" t="str">
-        <v>00:01:26</v>
+        <v>00:00:00</v>
       </c>
       <c r="R60" t="str">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="S60" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T60" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="V60" t="str">
-        <v>00:00:41</v>
-      </c>
-      <c r="X60" t="str">
-        <v>00:00:26</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>E8240619</v>
+        <v>E8238262</v>
       </c>
       <c r="B61" t="str">
-        <v>E8240619_MARICIELO MENDOZA REYES_POST</v>
+        <v>E8238262 - BRENDA VENEGAS PEJERREY</v>
       </c>
       <c r="C61" t="str">
         <v/>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -4219,34 +4141,34 @@
         <v>0</v>
       </c>
       <c r="H61" t="str">
-        <v>00:00:00</v>
+        <v>00:06:10</v>
       </c>
       <c r="I61" t="str">
-        <v>00:00:00</v>
+        <v>00:10:40</v>
       </c>
       <c r="J61" t="str">
-        <v>00:00:00</v>
+        <v>00:01:40</v>
       </c>
       <c r="K61" t="str">
-        <v>00:00:00</v>
+        <v>08:46:15</v>
       </c>
       <c r="L61" t="str">
-        <v>00:00:00</v>
+        <v>06:22:58</v>
       </c>
       <c r="M61" t="str">
-        <v>00:00:00</v>
+        <v>06:29:14</v>
       </c>
       <c r="N61" t="str">
-        <v>00:00:00</v>
+        <v>08:17:17</v>
       </c>
       <c r="O61" t="str">
-        <v>00:00:00</v>
+        <v>04:41:11</v>
       </c>
       <c r="P61" t="str">
-        <v>00:00:00</v>
+        <v>00:04:11</v>
       </c>
       <c r="Q61" t="str">
-        <v>00:00:00</v>
+        <v>00:04:26</v>
       </c>
       <c r="R61" t="str">
         <v>0</v>
@@ -4255,24 +4177,24 @@
         <v>ACTIVO</v>
       </c>
       <c r="T61" t="str">
-        <v>GR01</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>asesor.test</v>
+        <v>E8241106</v>
       </c>
       <c r="B62" t="str">
-        <v>ASESOR TEST</v>
+        <v>E8241106 - SAYURI GARRO GONZALES</v>
       </c>
       <c r="C62" t="str">
-        <v/>
+        <v>17:27:22</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -4281,51 +4203,54 @@
         <v>0</v>
       </c>
       <c r="H62" t="str">
-        <v>00:00:00</v>
+        <v>00:01:15</v>
       </c>
       <c r="I62" t="str">
-        <v>00:00:00</v>
+        <v>00:04:33</v>
       </c>
       <c r="J62" t="str">
-        <v>00:00:00</v>
+        <v>00:00:06</v>
       </c>
       <c r="K62" t="str">
-        <v>00:00:00</v>
+        <v>26:43:28</v>
       </c>
       <c r="L62" t="str">
-        <v>00:00:00</v>
+        <v>01:31:27</v>
       </c>
       <c r="M62" t="str">
-        <v>00:00:00</v>
+        <v>00:46:38</v>
       </c>
       <c r="N62" t="str">
-        <v>00:00:00</v>
+        <v>02:06:44</v>
       </c>
       <c r="O62" t="str">
-        <v>00:00:00</v>
+        <v>00:07:20</v>
       </c>
       <c r="P62" t="str">
-        <v>00:00:00</v>
+        <v>00:34:17</v>
       </c>
       <c r="Q62" t="str">
-        <v>00:00:00</v>
+        <v>01:07:51</v>
       </c>
       <c r="R62" t="str">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="S62" t="str">
-        <v>DESCONECTADO</v>
+        <v>ACTIVO</v>
       </c>
       <c r="T62" t="str">
-        <v>GR01</v>
+        <v>GR02</v>
+      </c>
+      <c r="W62" t="str">
+        <v>00:04:46</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>E8232465</v>
+        <v>E8242082</v>
       </c>
       <c r="B63" t="str">
-        <v>E8232465_MARISABEL HUAYNALAYA CORTEZ_POST</v>
+        <v>ZOILA KATHERINE MOSQUERA ALVA</v>
       </c>
       <c r="C63" t="str">
         <v/>
@@ -4376,18 +4301,18 @@
         <v>0</v>
       </c>
       <c r="S63" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T63" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>E8240606</v>
+        <v>E8242092</v>
       </c>
       <c r="B64" t="str">
-        <v>E8240606_JEFFERSON JESUS VARGAS MARTEL_POST</v>
+        <v>E8242092-RENATO SMITH CALLE ZAPATA</v>
       </c>
       <c r="C64" t="str">
         <v/>
@@ -4438,18 +4363,18 @@
         <v>0</v>
       </c>
       <c r="S64" t="str">
-        <v>DESCONECTADO</v>
+        <v>ACTIVO</v>
       </c>
       <c r="T64" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>E8237041</v>
+        <v>E8241639</v>
       </c>
       <c r="B65" t="str">
-        <v>E8237041_KAREN  MILAGROS ALATRISTA  ROJAS_POST</v>
+        <v>E8241639-CLAUDIO MARTIN SORIANO ARGOMEDO</v>
       </c>
       <c r="C65" t="str">
         <v/>
@@ -4503,24 +4428,24 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T65" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>E8240130</v>
+        <v>E8232039</v>
       </c>
       <c r="B66" t="str">
-        <v>E8240130_QUEENIE ARIEL GAMARRA MORALES_PRE</v>
+        <v>E8232039 - ALEXANDRA PAOLA ENCISO AURAZO</v>
       </c>
       <c r="C66" t="str">
-        <v>20:14:08</v>
+        <v/>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -4529,51 +4454,51 @@
         <v>0</v>
       </c>
       <c r="H66" t="str">
-        <v>00:00:00</v>
+        <v>00:04:34</v>
       </c>
       <c r="I66" t="str">
-        <v>00:00:00</v>
+        <v>00:08:48</v>
       </c>
       <c r="J66" t="str">
-        <v>00:00:00</v>
+        <v>00:00:20</v>
       </c>
       <c r="K66" t="str">
-        <v>00:00:00</v>
+        <v>02:10:37</v>
       </c>
       <c r="L66" t="str">
-        <v>00:00:00</v>
+        <v>00:52:06</v>
       </c>
       <c r="M66" t="str">
-        <v>00:00:00</v>
+        <v>00:52:11</v>
       </c>
       <c r="N66" t="str">
-        <v>00:00:00</v>
+        <v>01:08:16</v>
       </c>
       <c r="O66" t="str">
-        <v>00:00:00</v>
+        <v>00:36:05</v>
       </c>
       <c r="P66" t="str">
-        <v>00:00:00</v>
+        <v>00:02:24</v>
       </c>
       <c r="Q66" t="str">
-        <v>00:00:00</v>
+        <v>00:02:49</v>
       </c>
       <c r="R66" t="str">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="S66" t="str">
         <v>ACTIVO</v>
       </c>
       <c r="T66" t="str">
-        <v>GR07</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>E8240627</v>
+        <v>E8242369</v>
       </c>
       <c r="B67" t="str">
-        <v>E8240627_NICOLE ANDREA NUÑEZ SAMAME_POST</v>
+        <v>EDWIN JOEL VILCHEZ DAMIAN</v>
       </c>
       <c r="C67" t="str">
         <v/>
@@ -4624,27 +4549,27 @@
         <v>0</v>
       </c>
       <c r="S67" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T67" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>E8236390</v>
+        <v>E8239632</v>
       </c>
       <c r="B68" t="str">
-        <v>E8236390_LUCIA VALLES MUÑOZ_POST</v>
+        <v>E8239632 - NAYELI ABIGAIL ECHEANDIA BANCES</v>
       </c>
       <c r="C68" t="str">
-        <v>08:57:20</v>
+        <v/>
       </c>
       <c r="D68">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4653,63 +4578,60 @@
         <v>0</v>
       </c>
       <c r="H68" t="str">
-        <v>00:01:08</v>
+        <v>00:00:00</v>
       </c>
       <c r="I68" t="str">
-        <v>00:02:52</v>
+        <v>00:00:00</v>
       </c>
       <c r="J68" t="str">
-        <v>00:00:12</v>
+        <v>00:00:00</v>
       </c>
       <c r="K68" t="str">
-        <v>01:55:04</v>
+        <v>00:00:00</v>
       </c>
       <c r="L68" t="str">
-        <v>00:11:25</v>
+        <v>00:00:00</v>
       </c>
       <c r="M68" t="str">
-        <v>00:38:45</v>
+        <v>00:00:00</v>
       </c>
       <c r="N68" t="str">
-        <v>01:52:11</v>
+        <v>00:00:00</v>
       </c>
       <c r="O68" t="str">
-        <v>00:09:39</v>
+        <v>00:00:00</v>
       </c>
       <c r="P68" t="str">
-        <v>00:01:34</v>
+        <v>00:00:00</v>
       </c>
       <c r="Q68" t="str">
-        <v>00:02:04</v>
+        <v>00:00:00</v>
       </c>
       <c r="R68" t="str">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="S68" t="str">
         <v>DESCONECTADO</v>
       </c>
       <c r="T68" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="U68" t="str">
-        <v>00:29:04</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>E8240593</v>
+        <v>E8232048</v>
       </c>
       <c r="B69" t="str">
-        <v>E8240593_ADOLFO ALEJANDRO OBREGON MURRUGARRA_POST</v>
+        <v>E8232048 - ALBERTO SANDOBAL BOHORQUEZ</v>
       </c>
       <c r="C69" t="str">
-        <v>12:00:21</v>
+        <v/>
       </c>
       <c r="D69">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -4718,57 +4640,51 @@
         <v>0</v>
       </c>
       <c r="H69" t="str">
-        <v>00:00:30</v>
+        <v>00:00:15</v>
       </c>
       <c r="I69" t="str">
-        <v>00:01:09</v>
+        <v>00:00:15</v>
       </c>
       <c r="J69" t="str">
-        <v>00:00:17</v>
+        <v>00:00:15</v>
       </c>
       <c r="K69" t="str">
-        <v>00:59:38</v>
+        <v>03:25:39</v>
       </c>
       <c r="L69" t="str">
-        <v>00:08:54</v>
+        <v>03:25:39</v>
       </c>
       <c r="M69" t="str">
-        <v>00:26:17</v>
+        <v>01:19:37</v>
       </c>
       <c r="N69" t="str">
-        <v>00:57:48</v>
+        <v>01:19:37</v>
       </c>
       <c r="O69" t="str">
-        <v>00:04:43</v>
+        <v>01:19:37</v>
       </c>
       <c r="P69" t="str">
-        <v>00:01:00</v>
+        <v>00:01:15</v>
       </c>
       <c r="Q69" t="str">
-        <v>00:01:17</v>
+        <v>00:01:36</v>
       </c>
       <c r="R69" t="str">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="S69" t="str">
-        <v>DESCONECTADO</v>
+        <v>ACTIVO</v>
       </c>
       <c r="T69" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="U69" t="str">
-        <v>00:00:04</v>
-      </c>
-      <c r="V69" t="str">
-        <v>00:01:14</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>E8235514</v>
+        <v>E8238849</v>
       </c>
       <c r="B70" t="str">
-        <v>E8235514_YENELLYS TORREALBA TORREALBA PEREIRA_POST</v>
+        <v>E8238849 - JERSY EDGAR GAMARRA RAMOS</v>
       </c>
       <c r="C70" t="str">
         <v/>
@@ -4822,15 +4738,15 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T70" t="str">
-        <v>GR01</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>E8239651</v>
+        <v>E8242085</v>
       </c>
       <c r="B71" t="str">
-        <v>E8239651_GIANCARLO GIOHANI ESCOBEDO VALDIVIA_POST</v>
+        <v>E8242085-JHOSSELY LIZ ÑAÑA CONDOR</v>
       </c>
       <c r="C71" t="str">
         <v/>
@@ -4881,27 +4797,27 @@
         <v>0</v>
       </c>
       <c r="S71" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T71" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>E8239280</v>
+        <v>E8241643</v>
       </c>
       <c r="B72" t="str">
-        <v>E8239280_ANAYELLY XIHOMARA SANTA CRUZ GAONA_POST</v>
+        <v>E8241643-FRANCESCA PIA CAMILLA BARCENA ALDAVE</v>
       </c>
       <c r="C72" t="str">
         <v/>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4910,51 +4826,51 @@
         <v>0</v>
       </c>
       <c r="H72" t="str">
-        <v>00:00:00</v>
+        <v>00:03:00</v>
       </c>
       <c r="I72" t="str">
-        <v>00:00:00</v>
+        <v>00:06:46</v>
       </c>
       <c r="J72" t="str">
-        <v>00:00:00</v>
+        <v>00:00:23</v>
       </c>
       <c r="K72" t="str">
-        <v>00:00:00</v>
+        <v>02:55:12</v>
       </c>
       <c r="L72" t="str">
-        <v>00:00:00</v>
+        <v>00:38:13</v>
       </c>
       <c r="M72" t="str">
-        <v>00:00:00</v>
+        <v>01:06:29</v>
       </c>
       <c r="N72" t="str">
-        <v>00:00:00</v>
+        <v>02:19:00</v>
       </c>
       <c r="O72" t="str">
-        <v>00:00:00</v>
+        <v>00:33:51</v>
       </c>
       <c r="P72" t="str">
-        <v>00:00:00</v>
+        <v>00:02:40</v>
       </c>
       <c r="Q72" t="str">
-        <v>00:00:00</v>
+        <v>00:03:02</v>
       </c>
       <c r="R72" t="str">
         <v>0</v>
       </c>
       <c r="S72" t="str">
-        <v>DESCONECTADO</v>
+        <v>ACTIVO</v>
       </c>
       <c r="T72" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>E8237756</v>
+        <v>E8242079</v>
       </c>
       <c r="B73" t="str">
-        <v>E8237756_ROSMERY  ARACELI VILELA DEL CARPIO_POST</v>
+        <v>E8242079-DAYANNA SOFIA TELLO NOSTADES</v>
       </c>
       <c r="C73" t="str">
         <v/>
@@ -5008,24 +4924,24 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T73" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>E8235493</v>
+        <v>E8242091</v>
       </c>
       <c r="B74" t="str">
-        <v>E8235493_DANNEY ZENAIDA GARCIA PAREDES_POST</v>
+        <v>E8242091-VICTOR RAMON YOVERA YAMPUFE</v>
       </c>
       <c r="C74" t="str">
-        <v>10:57:30</v>
+        <v/>
       </c>
       <c r="D74">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -5034,57 +4950,51 @@
         <v>0</v>
       </c>
       <c r="H74" t="str">
-        <v>00:00:19</v>
+        <v>00:00:00</v>
       </c>
       <c r="I74" t="str">
-        <v>00:00:39</v>
+        <v>00:00:00</v>
       </c>
       <c r="J74" t="str">
-        <v>00:00:09</v>
+        <v>00:00:00</v>
       </c>
       <c r="K74" t="str">
-        <v>02:12:41</v>
+        <v>00:00:00</v>
       </c>
       <c r="L74" t="str">
-        <v>00:08:31</v>
+        <v>00:00:00</v>
       </c>
       <c r="M74" t="str">
-        <v>00:39:06</v>
+        <v>00:00:00</v>
       </c>
       <c r="N74" t="str">
-        <v>02:12:10</v>
+        <v>00:00:00</v>
       </c>
       <c r="O74" t="str">
-        <v>00:07:31</v>
+        <v>00:00:00</v>
       </c>
       <c r="P74" t="str">
-        <v>00:01:13</v>
+        <v>00:00:00</v>
       </c>
       <c r="Q74" t="str">
-        <v>00:01:32</v>
+        <v>00:00:00</v>
       </c>
       <c r="R74" t="str">
-        <v>501</v>
+        <v>0</v>
       </c>
       <c r="S74" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T74" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="U74" t="str">
-        <v>00:06:47</v>
-      </c>
-      <c r="V74" t="str">
-        <v>00:00:51</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>E8240638</v>
+        <v>E8242366</v>
       </c>
       <c r="B75" t="str">
-        <v>E8240638_YOSEMIL YULITSA RUBIN MILLA_POST</v>
+        <v>E8242366-JONATHAN KERVIN GARCIA CENTURION</v>
       </c>
       <c r="C75" t="str">
         <v/>
@@ -5138,15 +5048,15 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T75" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>E8240599</v>
+        <v>E8242098</v>
       </c>
       <c r="B76" t="str">
-        <v>E8240599_DAMARIS PANAIFO CAJAN_POST</v>
+        <v>E8242098-JHENYFER ALEXSANDRA FRANCO TAQUIRE</v>
       </c>
       <c r="C76" t="str">
         <v/>
@@ -5200,24 +5110,24 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T76" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>E8232163</v>
+        <v>E8232094</v>
       </c>
       <c r="B77" t="str">
-        <v>E8232163_MARISOL ALBARRACIN SANCHEZ_POST</v>
+        <v>E8232094 - DAYANA CADENILLAS LOPEZ</v>
       </c>
       <c r="C77" t="str">
-        <v>08:57:17</v>
+        <v/>
       </c>
       <c r="D77">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5226,54 +5136,51 @@
         <v>0</v>
       </c>
       <c r="H77" t="str">
-        <v>00:00:24</v>
+        <v>00:00:00</v>
       </c>
       <c r="I77" t="str">
-        <v>00:01:28</v>
+        <v>00:00:00</v>
       </c>
       <c r="J77" t="str">
-        <v>00:00:08</v>
+        <v>00:00:00</v>
       </c>
       <c r="K77" t="str">
-        <v>01:24:20</v>
+        <v>00:00:00</v>
       </c>
       <c r="L77" t="str">
-        <v>00:09:35</v>
+        <v>00:00:00</v>
       </c>
       <c r="M77" t="str">
-        <v>00:30:58</v>
+        <v>00:00:00</v>
       </c>
       <c r="N77" t="str">
-        <v>01:10:03</v>
+        <v>00:00:00</v>
       </c>
       <c r="O77" t="str">
-        <v>00:07:27</v>
+        <v>00:00:00</v>
       </c>
       <c r="P77" t="str">
-        <v>00:01:25</v>
+        <v>00:00:00</v>
       </c>
       <c r="Q77" t="str">
-        <v>00:01:48</v>
+        <v>00:00:00</v>
       </c>
       <c r="R77" t="str">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="S77" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T77" t="str">
-        <v>GR01</v>
-      </c>
-      <c r="V77" t="str">
-        <v>00:16:18</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>E8241368</v>
+        <v>E8241807</v>
       </c>
       <c r="B78" t="str">
-        <v>E8241368_CHRISTIAN JESUS MENDOZA GARRAFA_POST</v>
+        <v>E8241807-GASDALY BRIDGET YSIQUE GUEVARA</v>
       </c>
       <c r="C78" t="str">
         <v/>
@@ -5324,18 +5231,18 @@
         <v>0</v>
       </c>
       <c r="S78" t="str">
-        <v>DESCONECTADO</v>
+        <v>ACTIVO</v>
       </c>
       <c r="T78" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>E8236378</v>
+        <v>E8242374</v>
       </c>
       <c r="B79" t="str">
-        <v>E8236378_ESTRELLA ALAMA OTERO_POST</v>
+        <v>YEMINA NADIA CORONEL CAMASCA</v>
       </c>
       <c r="C79" t="str">
         <v/>
@@ -5386,18 +5293,18 @@
         <v>0</v>
       </c>
       <c r="S79" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T79" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>E8235271</v>
+        <v>E8239130</v>
       </c>
       <c r="B80" t="str">
-        <v>E8235271_ISAMAR STEFANY CALLE SALAZAR_POST</v>
+        <v>E8239130-ELSBETH FIORELLA SANCHEZ BALCAZAR</v>
       </c>
       <c r="C80" t="str">
         <v/>
@@ -5448,18 +5355,18 @@
         <v>0</v>
       </c>
       <c r="S80" t="str">
-        <v>ACTIVO</v>
+        <v>DESCONECTADO</v>
       </c>
       <c r="T80" t="str">
-        <v>GR01</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>E8231786</v>
+        <v>E8241417</v>
       </c>
       <c r="B81" t="str">
-        <v>E8231786_RAFAEL ANTONIO ESQUEN GODO_POST</v>
+        <v>E8241417 - MIGUEL ANGEL PACHECO QUICHIZ</v>
       </c>
       <c r="C81" t="str">
         <v/>
@@ -5513,24 +5420,24 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T81" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>E8236090</v>
+        <v>E8241430</v>
       </c>
       <c r="B82" t="str">
-        <v>E8236090_JESUS ALFREDO VENTURA SORALUZ_POST</v>
+        <v>E8241430 - ELTON KEVIN AZUCENA HERRERA</v>
       </c>
       <c r="C82" t="str">
         <v/>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -5539,34 +5446,34 @@
         <v>0</v>
       </c>
       <c r="H82" t="str">
-        <v>00:00:00</v>
+        <v>00:01:42</v>
       </c>
       <c r="I82" t="str">
-        <v>00:00:00</v>
+        <v>00:07:05</v>
       </c>
       <c r="J82" t="str">
-        <v>00:00:00</v>
+        <v>00:00:24</v>
       </c>
       <c r="K82" t="str">
-        <v>00:00:00</v>
+        <v>05:40:30</v>
       </c>
       <c r="L82" t="str">
-        <v>00:00:00</v>
+        <v>01:16:29</v>
       </c>
       <c r="M82" t="str">
-        <v>00:00:00</v>
+        <v>02:11:56</v>
       </c>
       <c r="N82" t="str">
-        <v>00:00:00</v>
+        <v>03:16:14</v>
       </c>
       <c r="O82" t="str">
-        <v>00:00:00</v>
+        <v>00:59:25</v>
       </c>
       <c r="P82" t="str">
-        <v>00:00:00</v>
+        <v>00:01:57</v>
       </c>
       <c r="Q82" t="str">
-        <v>00:00:00</v>
+        <v>00:02:15</v>
       </c>
       <c r="R82" t="str">
         <v>0</v>
@@ -5575,24 +5482,24 @@
         <v>DESCONECTADO</v>
       </c>
       <c r="T82" t="str">
-        <v>GR01</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>E8240605</v>
+        <v>E8232114</v>
       </c>
       <c r="B83" t="str">
-        <v>E8240605_IRMA SUMIANO PEREZ_POST</v>
+        <v>E8232114- BRIGGITTE CHAVEZ NORIEGA</v>
       </c>
       <c r="C83" t="str">
         <v/>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -5601,60 +5508,60 @@
         <v>0</v>
       </c>
       <c r="H83" t="str">
-        <v>00:00:00</v>
+        <v>00:04:11</v>
       </c>
       <c r="I83" t="str">
-        <v>00:00:00</v>
+        <v>00:09:54</v>
       </c>
       <c r="J83" t="str">
-        <v>00:00:00</v>
+        <v>00:00:06</v>
       </c>
       <c r="K83" t="str">
-        <v>00:00:00</v>
+        <v>03:21:14</v>
       </c>
       <c r="L83" t="str">
-        <v>00:00:00</v>
+        <v>01:51:46</v>
       </c>
       <c r="M83" t="str">
-        <v>00:00:00</v>
+        <v>01:25:24</v>
       </c>
       <c r="N83" t="str">
-        <v>00:00:00</v>
+        <v>02:30:45</v>
       </c>
       <c r="O83" t="str">
-        <v>00:00:00</v>
+        <v>00:42:42</v>
       </c>
       <c r="P83" t="str">
-        <v>00:00:00</v>
+        <v>00:02:37</v>
       </c>
       <c r="Q83" t="str">
-        <v>00:00:00</v>
+        <v>00:03:22</v>
       </c>
       <c r="R83" t="str">
         <v>0</v>
       </c>
       <c r="S83" t="str">
-        <v>DESCONECTADO</v>
+        <v>ACTIVO</v>
       </c>
       <c r="T83" t="str">
-        <v>GR01</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>E8239310</v>
+        <v>E8235066</v>
       </c>
       <c r="B84" t="str">
-        <v>E8239310_WENDY GIANELLA MUÑOZ DIAZ_POST</v>
+        <v>E8235066- KASSANDRA DEHYANYRA ESLAVA QUINTANA</v>
       </c>
       <c r="C84" t="str">
         <v/>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -5663,51 +5570,51 @@
         <v>0</v>
       </c>
       <c r="H84" t="str">
-        <v>00:00:00</v>
+        <v>00:01:03</v>
       </c>
       <c r="I84" t="str">
-        <v>00:00:00</v>
+        <v>00:02:35</v>
       </c>
       <c r="J84" t="str">
-        <v>00:00:00</v>
+        <v>00:00:07</v>
       </c>
       <c r="K84" t="str">
-        <v>00:00:00</v>
+        <v>07:18:19</v>
       </c>
       <c r="L84" t="str">
-        <v>00:00:00</v>
+        <v>01:06:04</v>
       </c>
       <c r="M84" t="str">
-        <v>00:00:00</v>
+        <v>00:56:50</v>
       </c>
       <c r="N84" t="str">
-        <v>00:00:00</v>
+        <v>01:45:51</v>
       </c>
       <c r="O84" t="str">
-        <v>00:00:00</v>
+        <v>00:07:22</v>
       </c>
       <c r="P84" t="str">
-        <v>00:00:00</v>
+        <v>00:01:31</v>
       </c>
       <c r="Q84" t="str">
-        <v>00:00:00</v>
+        <v>00:01:59</v>
       </c>
       <c r="R84" t="str">
         <v>0</v>
       </c>
       <c r="S84" t="str">
-        <v>DESCONECTADO</v>
+        <v>ACTIVO</v>
       </c>
       <c r="T84" t="str">
-        <v>GR01</v>
+        <v>GR02</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>E8240245</v>
+        <v>E8242375</v>
       </c>
       <c r="B85" t="str">
-        <v>E8240245_REMI ALEJANDRO TISNADO CONDORI_POST</v>
+        <v>E8242375- MOISES TOLENTINO LEON</v>
       </c>
       <c r="C85" t="str">
         <v/>
@@ -5761,12 +5668,5179 @@
         <v>ACTIVO</v>
       </c>
       <c r="T85" t="str">
-        <v>GR01</v>
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>E8242106</v>
+      </c>
+      <c r="B86" t="str">
+        <v>ANDREA PATRICIA PINO LLERENA</v>
+      </c>
+      <c r="C86" t="str">
+        <v/>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I86" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J86" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K86" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L86" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M86" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N86" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O86" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P86" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q86" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R86" t="str">
+        <v>0</v>
+      </c>
+      <c r="S86" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T86" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>E8239615</v>
+      </c>
+      <c r="B87" t="str">
+        <v>E8239615 - JESUS YARUMI OLIVA CIGUEÑAS</v>
+      </c>
+      <c r="C87" t="str">
+        <v/>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I87" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J87" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K87" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L87" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M87" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N87" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O87" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P87" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q87" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R87" t="str">
+        <v>0</v>
+      </c>
+      <c r="S87" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T87" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>E8238272</v>
+      </c>
+      <c r="B88" t="str">
+        <v>E8238272- MIGUEL ANGEL GONZALES CAGGIA</v>
+      </c>
+      <c r="C88" t="str">
+        <v/>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88" t="str">
+        <v>00:02:13</v>
+      </c>
+      <c r="I88" t="str">
+        <v>00:02:13</v>
+      </c>
+      <c r="J88" t="str">
+        <v>00:02:13</v>
+      </c>
+      <c r="K88" t="str">
+        <v>01:33:43</v>
+      </c>
+      <c r="L88" t="str">
+        <v>01:33:43</v>
+      </c>
+      <c r="M88" t="str">
+        <v>00:25:15</v>
+      </c>
+      <c r="N88" t="str">
+        <v>00:25:15</v>
+      </c>
+      <c r="O88" t="str">
+        <v>00:25:15</v>
+      </c>
+      <c r="P88" t="str">
+        <v>00:01:36</v>
+      </c>
+      <c r="Q88" t="str">
+        <v>00:02:00</v>
+      </c>
+      <c r="R88" t="str">
+        <v>0</v>
+      </c>
+      <c r="S88" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T88" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>E8242099</v>
+      </c>
+      <c r="B89" t="str">
+        <v>ERICSSON HANS CRUZ ZAPATA</v>
+      </c>
+      <c r="C89" t="str">
+        <v/>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I89" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J89" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K89" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L89" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M89" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N89" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O89" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P89" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q89" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R89" t="str">
+        <v>0</v>
+      </c>
+      <c r="S89" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T89" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>E8238268</v>
+      </c>
+      <c r="B90" t="str">
+        <v>E8238268 - JOSEPH LUIS REQUEJO GUEVARA</v>
+      </c>
+      <c r="C90" t="str">
+        <v/>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="E90">
+        <v>10</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" t="str">
+        <v>00:00:41</v>
+      </c>
+      <c r="I90" t="str">
+        <v>00:03:32</v>
+      </c>
+      <c r="J90" t="str">
+        <v>00:00:15</v>
+      </c>
+      <c r="K90" t="str">
+        <v>03:05:46</v>
+      </c>
+      <c r="L90" t="str">
+        <v>00:38:35</v>
+      </c>
+      <c r="M90" t="str">
+        <v>01:08:17</v>
+      </c>
+      <c r="N90" t="str">
+        <v>02:28:13</v>
+      </c>
+      <c r="O90" t="str">
+        <v>00:27:25</v>
+      </c>
+      <c r="P90" t="str">
+        <v>00:01:00</v>
+      </c>
+      <c r="Q90" t="str">
+        <v>00:01:12</v>
+      </c>
+      <c r="R90" t="str">
+        <v>0</v>
+      </c>
+      <c r="S90" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T90" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>E8236409</v>
+      </c>
+      <c r="B91" t="str">
+        <v>E8236409-AGUEDA ISABEL GUTIERREZ HACHIRCANA</v>
+      </c>
+      <c r="C91" t="str">
+        <v/>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91" t="str">
+        <v>00:00:09</v>
+      </c>
+      <c r="I91" t="str">
+        <v>00:00:09</v>
+      </c>
+      <c r="J91" t="str">
+        <v>00:00:09</v>
+      </c>
+      <c r="K91" t="str">
+        <v>02:32:12</v>
+      </c>
+      <c r="L91" t="str">
+        <v>02:32:12</v>
+      </c>
+      <c r="M91" t="str">
+        <v>00:34:48</v>
+      </c>
+      <c r="N91" t="str">
+        <v>00:34:48</v>
+      </c>
+      <c r="O91" t="str">
+        <v>00:34:48</v>
+      </c>
+      <c r="P91" t="str">
+        <v>00:01:33</v>
+      </c>
+      <c r="Q91" t="str">
+        <v>00:02:05</v>
+      </c>
+      <c r="R91" t="str">
+        <v>0</v>
+      </c>
+      <c r="S91" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T91" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>E8241509</v>
+      </c>
+      <c r="B92" t="str">
+        <v>E8241509 - LUZMILA MELGAREJO TIXE</v>
+      </c>
+      <c r="C92" t="str">
+        <v/>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>6</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92" t="str">
+        <v>00:00:13</v>
+      </c>
+      <c r="I92" t="str">
+        <v>00:00:31</v>
+      </c>
+      <c r="J92" t="str">
+        <v>00:00:04</v>
+      </c>
+      <c r="K92" t="str">
+        <v>06:50:37</v>
+      </c>
+      <c r="L92" t="str">
+        <v>04:35:58</v>
+      </c>
+      <c r="M92" t="str">
+        <v>01:29:58</v>
+      </c>
+      <c r="N92" t="str">
+        <v>04:18:02</v>
+      </c>
+      <c r="O92" t="str">
+        <v>00:41:02</v>
+      </c>
+      <c r="P92" t="str">
+        <v>00:03:01</v>
+      </c>
+      <c r="Q92" t="str">
+        <v>00:04:52</v>
+      </c>
+      <c r="R92" t="str">
+        <v>0</v>
+      </c>
+      <c r="S92" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T92" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>E8241632</v>
+      </c>
+      <c r="B93" t="str">
+        <v>ANGELA PAOLA MACHADO CHAMORRO</v>
+      </c>
+      <c r="C93" t="str">
+        <v/>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I93" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J93" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K93" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L93" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M93" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N93" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O93" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P93" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q93" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R93" t="str">
+        <v>0</v>
+      </c>
+      <c r="S93" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T93" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>E8236934</v>
+      </c>
+      <c r="B94" t="str">
+        <v>E8236934-CAMILA ALEXANDRA BARRA VARGAS</v>
+      </c>
+      <c r="C94" t="str">
+        <v/>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I94" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J94" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K94" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L94" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M94" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N94" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O94" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P94" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q94" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R94" t="str">
+        <v>0</v>
+      </c>
+      <c r="S94" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T94" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>E8241403</v>
+      </c>
+      <c r="B95" t="str">
+        <v>E8241403-OLENKA TOLENTINO CHAMPAC</v>
+      </c>
+      <c r="C95" t="str">
+        <v/>
+      </c>
+      <c r="D95">
+        <v>8</v>
+      </c>
+      <c r="E95">
+        <v>8</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95" t="str">
+        <v>00:02:08</v>
+      </c>
+      <c r="I95" t="str">
+        <v>00:03:29</v>
+      </c>
+      <c r="J95" t="str">
+        <v>00:00:35</v>
+      </c>
+      <c r="K95" t="str">
+        <v>23:40:43</v>
+      </c>
+      <c r="L95" t="str">
+        <v>02:08:57</v>
+      </c>
+      <c r="M95" t="str">
+        <v>02:23:12</v>
+      </c>
+      <c r="N95" t="str">
+        <v>04:59:16</v>
+      </c>
+      <c r="O95" t="str">
+        <v>01:28:42</v>
+      </c>
+      <c r="P95" t="str">
+        <v>00:10:35</v>
+      </c>
+      <c r="Q95" t="str">
+        <v>00:13:22</v>
+      </c>
+      <c r="R95" t="str">
+        <v>0</v>
+      </c>
+      <c r="S95" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T95" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>E8236939</v>
+      </c>
+      <c r="B96" t="str">
+        <v>E8236939-GABRIELA ELIZABETH RODRIGUEZ OCHOA</v>
+      </c>
+      <c r="C96" t="str">
+        <v/>
+      </c>
+      <c r="D96">
+        <v>13</v>
+      </c>
+      <c r="E96">
+        <v>13</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" t="str">
+        <v>00:01:34</v>
+      </c>
+      <c r="I96" t="str">
+        <v>00:03:33</v>
+      </c>
+      <c r="J96" t="str">
+        <v>00:00:15</v>
+      </c>
+      <c r="K96" t="str">
+        <v>09:49:34</v>
+      </c>
+      <c r="L96" t="str">
+        <v>00:23:24</v>
+      </c>
+      <c r="M96" t="str">
+        <v>01:58:58</v>
+      </c>
+      <c r="N96" t="str">
+        <v>04:07:06</v>
+      </c>
+      <c r="O96" t="str">
+        <v>00:09:14</v>
+      </c>
+      <c r="P96" t="str">
+        <v>00:01:54</v>
+      </c>
+      <c r="Q96" t="str">
+        <v>00:02:40</v>
+      </c>
+      <c r="R96" t="str">
+        <v>0</v>
+      </c>
+      <c r="S96" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T96" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>E8241665</v>
+      </c>
+      <c r="B97" t="str">
+        <v>E8241665-NATHALIA CAROLINA RIVEROS LORETO</v>
+      </c>
+      <c r="C97" t="str">
+        <v/>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I97" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J97" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K97" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L97" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M97" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N97" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O97" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P97" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q97" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R97" t="str">
+        <v>0</v>
+      </c>
+      <c r="S97" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T97" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>E8232074</v>
+      </c>
+      <c r="B98" t="str">
+        <v>E8232074 - TITO DANIEL TORRES MERINO</v>
+      </c>
+      <c r="C98" t="str">
+        <v/>
+      </c>
+      <c r="D98">
+        <v>6</v>
+      </c>
+      <c r="E98">
+        <v>6</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" t="str">
+        <v>00:01:30</v>
+      </c>
+      <c r="I98" t="str">
+        <v>00:03:56</v>
+      </c>
+      <c r="J98" t="str">
+        <v>00:00:10</v>
+      </c>
+      <c r="K98" t="str">
+        <v>05:30:27</v>
+      </c>
+      <c r="L98" t="str">
+        <v>01:49:51</v>
+      </c>
+      <c r="M98" t="str">
+        <v>01:28:22</v>
+      </c>
+      <c r="N98" t="str">
+        <v>02:21:36</v>
+      </c>
+      <c r="O98" t="str">
+        <v>00:24:53</v>
+      </c>
+      <c r="P98" t="str">
+        <v>00:05:42</v>
+      </c>
+      <c r="Q98" t="str">
+        <v>00:10:29</v>
+      </c>
+      <c r="R98" t="str">
+        <v>0</v>
+      </c>
+      <c r="S98" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T98" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>E8241429</v>
+      </c>
+      <c r="B99" t="str">
+        <v>E8241429 - GIAN PAUL LINO APAZA</v>
+      </c>
+      <c r="C99" t="str">
+        <v/>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I99" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J99" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K99" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L99" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M99" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N99" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O99" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P99" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q99" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R99" t="str">
+        <v>0</v>
+      </c>
+      <c r="S99" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T99" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>E8240411</v>
+      </c>
+      <c r="B100" t="str">
+        <v>E8240411 - PATRICK JOSHUA CUADROS GUTIERREZ</v>
+      </c>
+      <c r="C100" t="str">
+        <v/>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100" t="str">
+        <v>00:00:35</v>
+      </c>
+      <c r="I100" t="str">
+        <v>00:01:32</v>
+      </c>
+      <c r="J100" t="str">
+        <v>00:00:10</v>
+      </c>
+      <c r="K100" t="str">
+        <v>03:00:49</v>
+      </c>
+      <c r="L100" t="str">
+        <v>01:02:06</v>
+      </c>
+      <c r="M100" t="str">
+        <v>01:54:08</v>
+      </c>
+      <c r="N100" t="str">
+        <v>02:38:54</v>
+      </c>
+      <c r="O100" t="str">
+        <v>00:56:10</v>
+      </c>
+      <c r="P100" t="str">
+        <v>00:01:30</v>
+      </c>
+      <c r="Q100" t="str">
+        <v>00:01:40</v>
+      </c>
+      <c r="R100" t="str">
+        <v>0</v>
+      </c>
+      <c r="S100" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T100" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>E8239628</v>
+      </c>
+      <c r="B101" t="str">
+        <v>E8239628 - ALIMBERTH JOHAU GUEVARA PEREZ</v>
+      </c>
+      <c r="C101" t="str">
+        <v/>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I101" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J101" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K101" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L101" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M101" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N101" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O101" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P101" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q101" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R101" t="str">
+        <v>0</v>
+      </c>
+      <c r="S101" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T101" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>E8241654</v>
+      </c>
+      <c r="B102" t="str">
+        <v>E8241654-LESLIE ARLEHT CONDORI RUIZ</v>
+      </c>
+      <c r="C102" t="str">
+        <v/>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I102" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J102" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K102" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L102" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M102" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N102" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O102" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P102" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q102" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R102" t="str">
+        <v>0</v>
+      </c>
+      <c r="S102" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T102" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>E8236935</v>
+      </c>
+      <c r="B103" t="str">
+        <v>E8236935-ALEJANDRO ERICK FLORES VELASQUEZ</v>
+      </c>
+      <c r="C103" t="str">
+        <v/>
+      </c>
+      <c r="D103">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>8</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103" t="str">
+        <v>00:01:57</v>
+      </c>
+      <c r="I103" t="str">
+        <v>00:08:42</v>
+      </c>
+      <c r="J103" t="str">
+        <v>00:00:08</v>
+      </c>
+      <c r="K103" t="str">
+        <v>07:03:59</v>
+      </c>
+      <c r="L103" t="str">
+        <v>01:42:37</v>
+      </c>
+      <c r="M103" t="str">
+        <v>02:33:18</v>
+      </c>
+      <c r="N103" t="str">
+        <v>05:20:58</v>
+      </c>
+      <c r="O103" t="str">
+        <v>00:46:37</v>
+      </c>
+      <c r="P103" t="str">
+        <v>00:03:04</v>
+      </c>
+      <c r="Q103" t="str">
+        <v>00:03:36</v>
+      </c>
+      <c r="R103" t="str">
+        <v>0</v>
+      </c>
+      <c r="S103" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T103" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>E8236938</v>
+      </c>
+      <c r="B104" t="str">
+        <v>E8236938-VALERIA LUCIA PACHECO PAJUELO</v>
+      </c>
+      <c r="C104" t="str">
+        <v/>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="E104">
+        <v>5</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" t="str">
+        <v>00:00:54</v>
+      </c>
+      <c r="I104" t="str">
+        <v>00:01:39</v>
+      </c>
+      <c r="J104" t="str">
+        <v>00:00:15</v>
+      </c>
+      <c r="K104" t="str">
+        <v>03:58:16</v>
+      </c>
+      <c r="L104" t="str">
+        <v>00:43:03</v>
+      </c>
+      <c r="M104" t="str">
+        <v>01:21:14</v>
+      </c>
+      <c r="N104" t="str">
+        <v>01:50:24</v>
+      </c>
+      <c r="O104" t="str">
+        <v>00:40:59</v>
+      </c>
+      <c r="P104" t="str">
+        <v>00:01:33</v>
+      </c>
+      <c r="Q104" t="str">
+        <v>00:01:54</v>
+      </c>
+      <c r="R104" t="str">
+        <v>0</v>
+      </c>
+      <c r="S104" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T104" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>E8238838</v>
+      </c>
+      <c r="B105" t="str">
+        <v>E8238838 - ADRIAN ALEJANDRO RODRIGUEZ PORTUGAL</v>
+      </c>
+      <c r="C105" t="str">
+        <v/>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I105" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J105" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K105" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L105" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M105" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N105" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O105" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P105" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q105" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R105" t="str">
+        <v>0</v>
+      </c>
+      <c r="S105" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T105" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>E8241677</v>
+      </c>
+      <c r="B106" t="str">
+        <v>E8241677-TANIA PAOLA RIVEROS LORETO</v>
+      </c>
+      <c r="C106" t="str">
+        <v/>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" t="str">
+        <v>00:00:54</v>
+      </c>
+      <c r="I106" t="str">
+        <v>00:00:54</v>
+      </c>
+      <c r="J106" t="str">
+        <v>00:00:54</v>
+      </c>
+      <c r="K106" t="str">
+        <v>01:13:41</v>
+      </c>
+      <c r="L106" t="str">
+        <v>01:13:41</v>
+      </c>
+      <c r="M106" t="str">
+        <v>01:11:28</v>
+      </c>
+      <c r="N106" t="str">
+        <v>01:11:28</v>
+      </c>
+      <c r="O106" t="str">
+        <v>01:11:28</v>
+      </c>
+      <c r="P106" t="str">
+        <v>00:03:58</v>
+      </c>
+      <c r="Q106" t="str">
+        <v>00:04:17</v>
+      </c>
+      <c r="R106" t="str">
+        <v>0</v>
+      </c>
+      <c r="S106" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T106" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>E8232052</v>
+      </c>
+      <c r="B107" t="str">
+        <v>E8232052 - LADY MARGARETT ORDOÑEZ DIAZ</v>
+      </c>
+      <c r="C107" t="str">
+        <v/>
+      </c>
+      <c r="D107">
+        <v>12</v>
+      </c>
+      <c r="E107">
+        <v>12</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107" t="str">
+        <v>00:01:33</v>
+      </c>
+      <c r="I107" t="str">
+        <v>00:06:08</v>
+      </c>
+      <c r="J107" t="str">
+        <v>00:00:14</v>
+      </c>
+      <c r="K107" t="str">
+        <v>06:06:10</v>
+      </c>
+      <c r="L107" t="str">
+        <v>01:08:41</v>
+      </c>
+      <c r="M107" t="str">
+        <v>02:21:36</v>
+      </c>
+      <c r="N107" t="str">
+        <v>06:03:00</v>
+      </c>
+      <c r="O107" t="str">
+        <v>00:49:08</v>
+      </c>
+      <c r="P107" t="str">
+        <v>00:01:42</v>
+      </c>
+      <c r="Q107" t="str">
+        <v>00:02:10</v>
+      </c>
+      <c r="R107" t="str">
+        <v>0</v>
+      </c>
+      <c r="S107" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T107" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>E8232105</v>
+      </c>
+      <c r="B108" t="str">
+        <v>E8232105 - JOSE MANUEL GUERRERO MASABEL</v>
+      </c>
+      <c r="C108" t="str">
+        <v/>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108" t="str">
+        <v>00:00:19</v>
+      </c>
+      <c r="I108" t="str">
+        <v>00:00:25</v>
+      </c>
+      <c r="J108" t="str">
+        <v>00:00:13</v>
+      </c>
+      <c r="K108" t="str">
+        <v>07:31:13</v>
+      </c>
+      <c r="L108" t="str">
+        <v>03:39:29</v>
+      </c>
+      <c r="M108" t="str">
+        <v>04:36:19</v>
+      </c>
+      <c r="N108" t="str">
+        <v>07:18:59</v>
+      </c>
+      <c r="O108" t="str">
+        <v>03:03:53</v>
+      </c>
+      <c r="P108" t="str">
+        <v>00:02:01</v>
+      </c>
+      <c r="Q108" t="str">
+        <v>00:02:16</v>
+      </c>
+      <c r="R108" t="str">
+        <v>0</v>
+      </c>
+      <c r="S108" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T108" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>E8241679</v>
+      </c>
+      <c r="B109" t="str">
+        <v>VICTOR ISMAEL LAURA SAAVEDRA</v>
+      </c>
+      <c r="C109" t="str">
+        <v/>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I109" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J109" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K109" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L109" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M109" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N109" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O109" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P109" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q109" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R109" t="str">
+        <v>0</v>
+      </c>
+      <c r="S109" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T109" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>E8241636</v>
+      </c>
+      <c r="B110" t="str">
+        <v>E8241636-CARLOS ALFREDO HUAMANI MELENDEZ</v>
+      </c>
+      <c r="C110" t="str">
+        <v/>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I110" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J110" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K110" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L110" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M110" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N110" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O110" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P110" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q110" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R110" t="str">
+        <v>0</v>
+      </c>
+      <c r="S110" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T110" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>E8242103</v>
+      </c>
+      <c r="B111" t="str">
+        <v>E8242103-ELIZBITH ALEJANDRINA HIDALGO PARCO</v>
+      </c>
+      <c r="C111" t="str">
+        <v/>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I111" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J111" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K111" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L111" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M111" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N111" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O111" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P111" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q111" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R111" t="str">
+        <v>0</v>
+      </c>
+      <c r="S111" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T111" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>E8242108</v>
+      </c>
+      <c r="B112" t="str">
+        <v>E8242108-JENNIFER NINA</v>
+      </c>
+      <c r="C112" t="str">
+        <v/>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I112" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J112" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K112" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L112" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M112" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N112" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O112" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P112" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q112" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R112" t="str">
+        <v>0</v>
+      </c>
+      <c r="S112" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T112" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>E8240409</v>
+      </c>
+      <c r="B113" t="str">
+        <v>E8240409 - FABRIZIO HUMBERTO ANDRADE LAJO</v>
+      </c>
+      <c r="C113" t="str">
+        <v/>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I113" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J113" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K113" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L113" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M113" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N113" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O113" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P113" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q113" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R113" t="str">
+        <v>0</v>
+      </c>
+      <c r="S113" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T113" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>E8240687</v>
+      </c>
+      <c r="B114" t="str">
+        <v>E8240687 - YAHAYRA ISABEL CUYA RACHE</v>
+      </c>
+      <c r="C114" t="str">
+        <v/>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I114" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J114" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K114" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L114" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M114" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N114" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O114" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P114" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q114" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R114" t="str">
+        <v>0</v>
+      </c>
+      <c r="S114" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T114" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>E8242100</v>
+      </c>
+      <c r="B115" t="str">
+        <v>E8242100-LUZ GUISELA LEON GARCIA</v>
+      </c>
+      <c r="C115" t="str">
+        <v/>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I115" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J115" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K115" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L115" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M115" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N115" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O115" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P115" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q115" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R115" t="str">
+        <v>0</v>
+      </c>
+      <c r="S115" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T115" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>E8234151</v>
+      </c>
+      <c r="B116" t="str">
+        <v>E8234151-JEAN CARLOS RAZURI ARRUNATEGUI</v>
+      </c>
+      <c r="C116" t="str">
+        <v>09:48:20</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+      <c r="E116">
+        <v>5</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116" t="str">
+        <v>00:00:46</v>
+      </c>
+      <c r="I116" t="str">
+        <v>00:01:26</v>
+      </c>
+      <c r="J116" t="str">
+        <v>00:00:05</v>
+      </c>
+      <c r="K116" t="str">
+        <v>11:48:11</v>
+      </c>
+      <c r="L116" t="str">
+        <v>01:06:30</v>
+      </c>
+      <c r="M116" t="str">
+        <v>02:56:26</v>
+      </c>
+      <c r="N116" t="str">
+        <v>09:24:03</v>
+      </c>
+      <c r="O116" t="str">
+        <v>01:04:07</v>
+      </c>
+      <c r="P116" t="str">
+        <v>00:03:44</v>
+      </c>
+      <c r="Q116" t="str">
+        <v>00:04:54</v>
+      </c>
+      <c r="R116" t="str">
+        <v>1</v>
+      </c>
+      <c r="S116" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T116" t="str">
+        <v>GR02</v>
+      </c>
+      <c r="V116" t="str">
+        <v>00:30:49</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>E8238168</v>
+      </c>
+      <c r="B117" t="str">
+        <v>E8238168 - AXELL ENRIQUE CCORISAPRA CAJAHUAMAN</v>
+      </c>
+      <c r="C117" t="str">
+        <v>08:50:05</v>
+      </c>
+      <c r="D117">
+        <v>58</v>
+      </c>
+      <c r="E117">
+        <v>58</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117" t="str">
+        <v>00:01:29</v>
+      </c>
+      <c r="I117" t="str">
+        <v>00:06:57</v>
+      </c>
+      <c r="J117" t="str">
+        <v>00:00:04</v>
+      </c>
+      <c r="K117" t="str">
+        <v>19:39:21</v>
+      </c>
+      <c r="L117" t="str">
+        <v>00:06:05</v>
+      </c>
+      <c r="M117" t="str">
+        <v>00:28:37</v>
+      </c>
+      <c r="N117" t="str">
+        <v>02:15:27</v>
+      </c>
+      <c r="O117" t="str">
+        <v>00:03:08</v>
+      </c>
+      <c r="P117" t="str">
+        <v>00:18:36</v>
+      </c>
+      <c r="Q117" t="str">
+        <v>00:36:26</v>
+      </c>
+      <c r="R117" t="str">
+        <v>114</v>
+      </c>
+      <c r="S117" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T117" t="str">
+        <v>GR02</v>
+      </c>
+      <c r="U117" t="str">
+        <v>01:09:49</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>E8241405</v>
+      </c>
+      <c r="B118" t="str">
+        <v>E8241405 - LUZ MARIA YATACO VENTURA</v>
+      </c>
+      <c r="C118" t="str">
+        <v/>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I118" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J118" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K118" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L118" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M118" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N118" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O118" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P118" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q118" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R118" t="str">
+        <v>0</v>
+      </c>
+      <c r="S118" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T118" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>E8241396</v>
+      </c>
+      <c r="B119" t="str">
+        <v>E8241396-GUADALUPE DEL ROSARIO IBAÑEZ PACAYA</v>
+      </c>
+      <c r="C119" t="str">
+        <v/>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I119" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J119" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K119" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L119" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M119" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N119" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O119" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P119" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q119" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R119" t="str">
+        <v>0</v>
+      </c>
+      <c r="S119" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T119" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>E8242367</v>
+      </c>
+      <c r="B120" t="str">
+        <v>E8242367 - NOLI NATALI CORONADO RODRIGUEZ</v>
+      </c>
+      <c r="C120" t="str">
+        <v/>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I120" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J120" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K120" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L120" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M120" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N120" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O120" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P120" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q120" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R120" t="str">
+        <v>0</v>
+      </c>
+      <c r="S120" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T120" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>E8232068</v>
+      </c>
+      <c r="B121" t="str">
+        <v>E8232068 - JESUS AMEHD UNGARO HOSTIA</v>
+      </c>
+      <c r="C121" t="str">
+        <v/>
+      </c>
+      <c r="D121">
+        <v>8</v>
+      </c>
+      <c r="E121">
+        <v>8</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121" t="str">
+        <v>00:01:07</v>
+      </c>
+      <c r="I121" t="str">
+        <v>00:03:21</v>
+      </c>
+      <c r="J121" t="str">
+        <v>00:00:10</v>
+      </c>
+      <c r="K121" t="str">
+        <v>04:19:08</v>
+      </c>
+      <c r="L121" t="str">
+        <v>01:01:49</v>
+      </c>
+      <c r="M121" t="str">
+        <v>01:27:14</v>
+      </c>
+      <c r="N121" t="str">
+        <v>02:47:50</v>
+      </c>
+      <c r="O121" t="str">
+        <v>00:07:57</v>
+      </c>
+      <c r="P121" t="str">
+        <v>00:01:56</v>
+      </c>
+      <c r="Q121" t="str">
+        <v>00:03:00</v>
+      </c>
+      <c r="R121" t="str">
+        <v>0</v>
+      </c>
+      <c r="S121" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T121" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>E8241680</v>
+      </c>
+      <c r="B122" t="str">
+        <v>E8241680-VILMA ALEJANDRA GARAMENDI ROSALES</v>
+      </c>
+      <c r="C122" t="str">
+        <v/>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I122" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J122" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K122" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L122" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M122" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N122" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O122" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P122" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q122" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R122" t="str">
+        <v>0</v>
+      </c>
+      <c r="S122" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T122" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>E8241675</v>
+      </c>
+      <c r="B123" t="str">
+        <v>SAUL BENJAMIN SOLIS PEREZ</v>
+      </c>
+      <c r="C123" t="str">
+        <v/>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I123" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J123" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K123" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L123" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M123" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N123" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O123" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P123" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q123" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R123" t="str">
+        <v>0</v>
+      </c>
+      <c r="S123" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T123" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>E8239278</v>
+      </c>
+      <c r="B124" t="str">
+        <v>E8239278-JENNIFER MARLEN CAVERO MONTANO</v>
+      </c>
+      <c r="C124" t="str">
+        <v/>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I124" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J124" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K124" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L124" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M124" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N124" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O124" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P124" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q124" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R124" t="str">
+        <v>0</v>
+      </c>
+      <c r="S124" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T124" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>E8242391</v>
+      </c>
+      <c r="B125" t="str">
+        <v>VANNIA PATSY LAVALLE PALACIOS</v>
+      </c>
+      <c r="C125" t="str">
+        <v/>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I125" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J125" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K125" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L125" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M125" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N125" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O125" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P125" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q125" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R125" t="str">
+        <v>0</v>
+      </c>
+      <c r="S125" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T125" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>E8241642</v>
+      </c>
+      <c r="B126" t="str">
+        <v>ELIZABETH CLARA MORALES OCHANTE</v>
+      </c>
+      <c r="C126" t="str">
+        <v/>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I126" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J126" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K126" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L126" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M126" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N126" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O126" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P126" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q126" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R126" t="str">
+        <v>0</v>
+      </c>
+      <c r="S126" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T126" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>E8238264</v>
+      </c>
+      <c r="B127" t="str">
+        <v>E8238264 - MARIELENA DEL ROSARIO VENTURA ANGELES</v>
+      </c>
+      <c r="C127" t="str">
+        <v/>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I127" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J127" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K127" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L127" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M127" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N127" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O127" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P127" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q127" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R127" t="str">
+        <v>0</v>
+      </c>
+      <c r="S127" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T127" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>E8242396</v>
+      </c>
+      <c r="B128" t="str">
+        <v>E8242396-DIEGO ALONSO OCAÑA ORTIZ</v>
+      </c>
+      <c r="C128" t="str">
+        <v/>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I128" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J128" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K128" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L128" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M128" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N128" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O128" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P128" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q128" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R128" t="str">
+        <v>0</v>
+      </c>
+      <c r="S128" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T128" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>E8238274</v>
+      </c>
+      <c r="B129" t="str">
+        <v>E8238274 - NELSON JOSE SANABRIA TAPIA</v>
+      </c>
+      <c r="C129" t="str">
+        <v>10:57:23</v>
+      </c>
+      <c r="D129">
+        <v>35</v>
+      </c>
+      <c r="E129">
+        <v>35</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129" t="str">
+        <v>00:01:39</v>
+      </c>
+      <c r="I129" t="str">
+        <v>00:06:07</v>
+      </c>
+      <c r="J129" t="str">
+        <v>00:00:10</v>
+      </c>
+      <c r="K129" t="str">
+        <v>24:50:14</v>
+      </c>
+      <c r="L129" t="str">
+        <v>01:10:15</v>
+      </c>
+      <c r="M129" t="str">
+        <v>01:00:43</v>
+      </c>
+      <c r="N129" t="str">
+        <v>04:29:55</v>
+      </c>
+      <c r="O129" t="str">
+        <v>00:02:55</v>
+      </c>
+      <c r="P129" t="str">
+        <v>00:44:04</v>
+      </c>
+      <c r="Q129" t="str">
+        <v>01:27:06</v>
+      </c>
+      <c r="R129" t="str">
+        <v>109</v>
+      </c>
+      <c r="S129" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T129" t="str">
+        <v>GR02</v>
+      </c>
+      <c r="W129" t="str">
+        <v>00:14:39</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>E8241637</v>
+      </c>
+      <c r="B130" t="str">
+        <v>E8241637-CAROLINA DEL MILAGRO GONZALES SUAREZ</v>
+      </c>
+      <c r="C130" t="str">
+        <v/>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I130" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J130" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K130" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L130" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M130" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N130" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O130" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P130" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q130" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R130" t="str">
+        <v>0</v>
+      </c>
+      <c r="S130" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T130" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>E8242397</v>
+      </c>
+      <c r="B131" t="str">
+        <v>DEIHANNE VARELA VALENCIA</v>
+      </c>
+      <c r="C131" t="str">
+        <v/>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I131" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J131" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K131" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L131" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M131" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N131" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O131" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P131" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q131" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R131" t="str">
+        <v>0</v>
+      </c>
+      <c r="S131" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T131" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>E8241412</v>
+      </c>
+      <c r="B132" t="str">
+        <v>E8241412 - DIEGO ALONSO AVILA NANO</v>
+      </c>
+      <c r="C132" t="str">
+        <v/>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I132" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J132" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K132" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L132" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M132" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N132" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O132" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P132" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q132" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R132" t="str">
+        <v>0</v>
+      </c>
+      <c r="S132" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T132" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>E8232078</v>
+      </c>
+      <c r="B133" t="str">
+        <v>E8232078 - JOSE RODOLFO ZUMARAN SAAVEDRA</v>
+      </c>
+      <c r="C133" t="str">
+        <v/>
+      </c>
+      <c r="D133">
+        <v>12</v>
+      </c>
+      <c r="E133">
+        <v>12</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133" t="str">
+        <v>00:00:54</v>
+      </c>
+      <c r="I133" t="str">
+        <v>00:03:57</v>
+      </c>
+      <c r="J133" t="str">
+        <v>00:00:08</v>
+      </c>
+      <c r="K133" t="str">
+        <v>04:40:14</v>
+      </c>
+      <c r="L133" t="str">
+        <v>00:09:06</v>
+      </c>
+      <c r="M133" t="str">
+        <v>01:43:43</v>
+      </c>
+      <c r="N133" t="str">
+        <v>03:51:16</v>
+      </c>
+      <c r="O133" t="str">
+        <v>00:05:57</v>
+      </c>
+      <c r="P133" t="str">
+        <v>00:01:18</v>
+      </c>
+      <c r="Q133" t="str">
+        <v>00:01:36</v>
+      </c>
+      <c r="R133" t="str">
+        <v>0</v>
+      </c>
+      <c r="S133" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T133" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>E8239131</v>
+      </c>
+      <c r="B134" t="str">
+        <v>E8239131- ANGEL RENATO ARTEAGA HINOJOSA</v>
+      </c>
+      <c r="C134" t="str">
+        <v/>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I134" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J134" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K134" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L134" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M134" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N134" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O134" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P134" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q134" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R134" t="str">
+        <v>0</v>
+      </c>
+      <c r="S134" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T134" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>E8241420</v>
+      </c>
+      <c r="B135" t="str">
+        <v>E8241420 - LIZ MARICIELO VASQUEZ COTRINA</v>
+      </c>
+      <c r="C135" t="str">
+        <v/>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I135" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J135" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K135" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L135" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M135" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N135" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O135" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P135" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q135" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R135" t="str">
+        <v>0</v>
+      </c>
+      <c r="S135" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T135" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>E8242000</v>
+      </c>
+      <c r="B136" t="str">
+        <v>ISAC DE LA CRUZ IVAÑEZ</v>
+      </c>
+      <c r="C136" t="str">
+        <v/>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I136" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J136" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K136" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L136" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M136" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N136" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O136" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P136" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q136" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R136" t="str">
+        <v>0</v>
+      </c>
+      <c r="S136" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T136" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>E8238845</v>
+      </c>
+      <c r="B137" t="str">
+        <v>E8238845 - VIVIAN MISHEL BARRIENTOS CHAYÑA</v>
+      </c>
+      <c r="C137" t="str">
+        <v/>
+      </c>
+      <c r="D137">
+        <v>4</v>
+      </c>
+      <c r="E137">
+        <v>4</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" t="str">
+        <v>00:02:00</v>
+      </c>
+      <c r="I137" t="str">
+        <v>00:02:22</v>
+      </c>
+      <c r="J137" t="str">
+        <v>00:01:40</v>
+      </c>
+      <c r="K137" t="str">
+        <v>07:34:27</v>
+      </c>
+      <c r="L137" t="str">
+        <v>02:21:32</v>
+      </c>
+      <c r="M137" t="str">
+        <v>02:52:06</v>
+      </c>
+      <c r="N137" t="str">
+        <v>04:46:43</v>
+      </c>
+      <c r="O137" t="str">
+        <v>01:11:13</v>
+      </c>
+      <c r="P137" t="str">
+        <v>00:01:37</v>
+      </c>
+      <c r="Q137" t="str">
+        <v>00:01:55</v>
+      </c>
+      <c r="R137" t="str">
+        <v>0</v>
+      </c>
+      <c r="S137" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T137" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>E8241648</v>
+      </c>
+      <c r="B138" t="str">
+        <v>JAIME LUIS LORO GONZALES</v>
+      </c>
+      <c r="C138" t="str">
+        <v/>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I138" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J138" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K138" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L138" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M138" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N138" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O138" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P138" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q138" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R138" t="str">
+        <v>0</v>
+      </c>
+      <c r="S138" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T138" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>E8234141</v>
+      </c>
+      <c r="B139" t="str">
+        <v>E8234141-LIZETH GOÑAS MUÑOZ</v>
+      </c>
+      <c r="C139" t="str">
+        <v/>
+      </c>
+      <c r="D139">
+        <v>4</v>
+      </c>
+      <c r="E139">
+        <v>4</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="str">
+        <v>00:00:33</v>
+      </c>
+      <c r="I139" t="str">
+        <v>00:01:33</v>
+      </c>
+      <c r="J139" t="str">
+        <v>00:00:10</v>
+      </c>
+      <c r="K139" t="str">
+        <v>03:57:40</v>
+      </c>
+      <c r="L139" t="str">
+        <v>00:43:11</v>
+      </c>
+      <c r="M139" t="str">
+        <v>01:25:43</v>
+      </c>
+      <c r="N139" t="str">
+        <v>03:32:40</v>
+      </c>
+      <c r="O139" t="str">
+        <v>00:21:10</v>
+      </c>
+      <c r="P139" t="str">
+        <v>00:02:42</v>
+      </c>
+      <c r="Q139" t="str">
+        <v>00:03:19</v>
+      </c>
+      <c r="R139" t="str">
+        <v>0</v>
+      </c>
+      <c r="S139" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T139" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>E8242389</v>
+      </c>
+      <c r="B140" t="str">
+        <v>E8242389- CARLOS FABRIZIO MILLA UBILLUS</v>
+      </c>
+      <c r="C140" t="str">
+        <v/>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I140" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J140" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K140" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L140" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M140" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N140" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O140" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P140" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q140" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R140" t="str">
+        <v>0</v>
+      </c>
+      <c r="S140" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T140" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>E8234159</v>
+      </c>
+      <c r="B141" t="str">
+        <v>E8234159-KARIN LOURDES TOVAR WUALTTUONI</v>
+      </c>
+      <c r="C141" t="str">
+        <v>08:09:58</v>
+      </c>
+      <c r="D141">
+        <v>11</v>
+      </c>
+      <c r="E141">
+        <v>11</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141" t="str">
+        <v>00:01:35</v>
+      </c>
+      <c r="I141" t="str">
+        <v>00:02:33</v>
+      </c>
+      <c r="J141" t="str">
+        <v>00:00:02</v>
+      </c>
+      <c r="K141" t="str">
+        <v>13:26:23</v>
+      </c>
+      <c r="L141" t="str">
+        <v>01:00:29</v>
+      </c>
+      <c r="M141" t="str">
+        <v>01:33:15</v>
+      </c>
+      <c r="N141" t="str">
+        <v>03:39:30</v>
+      </c>
+      <c r="O141" t="str">
+        <v>01:00:04</v>
+      </c>
+      <c r="P141" t="str">
+        <v>00:03:56</v>
+      </c>
+      <c r="Q141" t="str">
+        <v>00:07:00</v>
+      </c>
+      <c r="R141" t="str">
+        <v>32</v>
+      </c>
+      <c r="S141" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T141" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>E8232113</v>
+      </c>
+      <c r="B142" t="str">
+        <v>E8232113- JACQUELINE ROSARIO ARTEAGA VILCA</v>
+      </c>
+      <c r="C142" t="str">
+        <v/>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142">
+        <v>5</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142" t="str">
+        <v>00:00:15</v>
+      </c>
+      <c r="I142" t="str">
+        <v>00:00:32</v>
+      </c>
+      <c r="J142" t="str">
+        <v>00:00:09</v>
+      </c>
+      <c r="K142" t="str">
+        <v>05:18:01</v>
+      </c>
+      <c r="L142" t="str">
+        <v>01:04:04</v>
+      </c>
+      <c r="M142" t="str">
+        <v>02:14:38</v>
+      </c>
+      <c r="N142" t="str">
+        <v>05:14:10</v>
+      </c>
+      <c r="O142" t="str">
+        <v>01:03:31</v>
+      </c>
+      <c r="P142" t="str">
+        <v>00:35:23</v>
+      </c>
+      <c r="Q142" t="str">
+        <v>01:07:48</v>
+      </c>
+      <c r="R142" t="str">
+        <v>0</v>
+      </c>
+      <c r="S142" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T142" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>E8241676</v>
+      </c>
+      <c r="B143" t="str">
+        <v>SOLANCH DAYAN BARRIENTOS URVINA</v>
+      </c>
+      <c r="C143" t="str">
+        <v/>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I143" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J143" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K143" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L143" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M143" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N143" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O143" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P143" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q143" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R143" t="str">
+        <v>0</v>
+      </c>
+      <c r="S143" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T143" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>E8242372</v>
+      </c>
+      <c r="B144" t="str">
+        <v>E8242372- CLAUDIA MONICA RUIZ RUIZ</v>
+      </c>
+      <c r="C144" t="str">
+        <v/>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I144" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J144" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K144" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L144" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M144" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N144" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O144" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P144" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q144" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R144" t="str">
+        <v>0</v>
+      </c>
+      <c r="S144" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T144" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>E8241394</v>
+      </c>
+      <c r="B145" t="str">
+        <v>NICOLL KATHERINE CHANAME CRISANTO</v>
+      </c>
+      <c r="C145" t="str">
+        <v/>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I145" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J145" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K145" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L145" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M145" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N145" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O145" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P145" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q145" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R145" t="str">
+        <v>0</v>
+      </c>
+      <c r="S145" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T145" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>E8241422</v>
+      </c>
+      <c r="B146" t="str">
+        <v>GABRIELA XIOMARA NORIEGA RAMIREZ</v>
+      </c>
+      <c r="C146" t="str">
+        <v/>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I146" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J146" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K146" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L146" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M146" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N146" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O146" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P146" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q146" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R146" t="str">
+        <v>0</v>
+      </c>
+      <c r="S146" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T146" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>E8233283</v>
+      </c>
+      <c r="B147" t="str">
+        <v>E8233283 - MANUEL ARON TORRES LOPEZ</v>
+      </c>
+      <c r="C147" t="str">
+        <v/>
+      </c>
+      <c r="D147">
+        <v>5</v>
+      </c>
+      <c r="E147">
+        <v>5</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147" t="str">
+        <v>00:00:44</v>
+      </c>
+      <c r="I147" t="str">
+        <v>00:01:15</v>
+      </c>
+      <c r="J147" t="str">
+        <v>00:00:08</v>
+      </c>
+      <c r="K147" t="str">
+        <v>05:54:07</v>
+      </c>
+      <c r="L147" t="str">
+        <v>01:39:51</v>
+      </c>
+      <c r="M147" t="str">
+        <v>02:14:22</v>
+      </c>
+      <c r="N147" t="str">
+        <v>04:11:48</v>
+      </c>
+      <c r="O147" t="str">
+        <v>01:12:31</v>
+      </c>
+      <c r="P147" t="str">
+        <v>00:01:00</v>
+      </c>
+      <c r="Q147" t="str">
+        <v>00:01:18</v>
+      </c>
+      <c r="R147" t="str">
+        <v>0</v>
+      </c>
+      <c r="S147" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T147" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>E8241661</v>
+      </c>
+      <c r="B148" t="str">
+        <v>E8241661-MARIA FE GUTIERREZ DE LA FUENTE PASTOR</v>
+      </c>
+      <c r="C148" t="str">
+        <v/>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I148" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J148" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K148" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L148" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M148" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N148" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O148" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P148" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q148" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R148" t="str">
+        <v>0</v>
+      </c>
+      <c r="S148" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T148" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>E8242563</v>
+      </c>
+      <c r="B149" t="str">
+        <v>GERALDINE CRISTEL PONTE CARRION</v>
+      </c>
+      <c r="C149" t="str">
+        <v/>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I149" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J149" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K149" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L149" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M149" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N149" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O149" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P149" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q149" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R149" t="str">
+        <v>0</v>
+      </c>
+      <c r="S149" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T149" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>E8240408</v>
+      </c>
+      <c r="B150" t="str">
+        <v>E8240408-CHIARA NICOLLE BENDEZU ROJAS</v>
+      </c>
+      <c r="C150" t="str">
+        <v/>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I150" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J150" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K150" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L150" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M150" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N150" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O150" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P150" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q150" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R150" t="str">
+        <v>0</v>
+      </c>
+      <c r="S150" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T150" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>E8242380</v>
+      </c>
+      <c r="B151" t="str">
+        <v>E8242380-DIEGO ENRIQUE SUAREZ SAMOS</v>
+      </c>
+      <c r="C151" t="str">
+        <v/>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I151" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J151" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K151" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L151" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M151" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N151" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O151" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P151" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q151" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R151" t="str">
+        <v>0</v>
+      </c>
+      <c r="S151" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T151" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>E8241649</v>
+      </c>
+      <c r="B152" t="str">
+        <v>E8241649-JAVIER LOPEZ SOTO</v>
+      </c>
+      <c r="C152" t="str">
+        <v/>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I152" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J152" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K152" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L152" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M152" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N152" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O152" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P152" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q152" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R152" t="str">
+        <v>0</v>
+      </c>
+      <c r="S152" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T152" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>E8242392</v>
+      </c>
+      <c r="B153" t="str">
+        <v>ROMMEL JESUS CHAVEZ SANCHEZ</v>
+      </c>
+      <c r="C153" t="str">
+        <v/>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I153" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J153" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K153" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L153" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M153" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N153" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O153" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P153" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q153" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R153" t="str">
+        <v>0</v>
+      </c>
+      <c r="S153" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T153" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>E8232059</v>
+      </c>
+      <c r="B154" t="str">
+        <v>E8232059-LOURDES HAYDEE CHERO CHERO</v>
+      </c>
+      <c r="C154" t="str">
+        <v>09:42:09</v>
+      </c>
+      <c r="D154">
+        <v>35</v>
+      </c>
+      <c r="E154">
+        <v>35</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154" t="str">
+        <v>00:02:14</v>
+      </c>
+      <c r="I154" t="str">
+        <v>00:04:10</v>
+      </c>
+      <c r="J154" t="str">
+        <v>00:00:21</v>
+      </c>
+      <c r="K154" t="str">
+        <v>24:37:51</v>
+      </c>
+      <c r="L154" t="str">
+        <v>03:08:00</v>
+      </c>
+      <c r="M154" t="str">
+        <v>00:47:59</v>
+      </c>
+      <c r="N154" t="str">
+        <v>04:44:47</v>
+      </c>
+      <c r="O154" t="str">
+        <v>00:18:56</v>
+      </c>
+      <c r="P154" t="str">
+        <v>00:13:07</v>
+      </c>
+      <c r="Q154" t="str">
+        <v>00:25:38</v>
+      </c>
+      <c r="R154" t="str">
+        <v>105</v>
+      </c>
+      <c r="S154" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T154" t="str">
+        <v>GR02</v>
+      </c>
+      <c r="V154" t="str">
+        <v>00:02:13</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>E8232089</v>
+      </c>
+      <c r="B155" t="str">
+        <v>E8232089 - JHONN CARLOS PERALTA LUJÁN</v>
+      </c>
+      <c r="C155" t="str">
+        <v>09:03:35</v>
+      </c>
+      <c r="D155">
+        <v>7</v>
+      </c>
+      <c r="E155">
+        <v>7</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155" t="str">
+        <v>00:05:47</v>
+      </c>
+      <c r="I155" t="str">
+        <v>00:10:10</v>
+      </c>
+      <c r="J155" t="str">
+        <v>00:00:29</v>
+      </c>
+      <c r="K155" t="str">
+        <v>10:08:55</v>
+      </c>
+      <c r="L155" t="str">
+        <v>02:15:21</v>
+      </c>
+      <c r="M155" t="str">
+        <v>05:03:54</v>
+      </c>
+      <c r="N155" t="str">
+        <v>10:06:30</v>
+      </c>
+      <c r="O155" t="str">
+        <v>01:43:04</v>
+      </c>
+      <c r="P155" t="str">
+        <v>00:20:35</v>
+      </c>
+      <c r="Q155" t="str">
+        <v>00:35:36</v>
+      </c>
+      <c r="R155" t="str">
+        <v>20</v>
+      </c>
+      <c r="S155" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T155" t="str">
+        <v>GR02</v>
+      </c>
+      <c r="V155" t="str">
+        <v>00:04:33</v>
+      </c>
+      <c r="X155" t="str">
+        <v>00:15:33</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>E8232110</v>
+      </c>
+      <c r="B156" t="str">
+        <v>E8232110- JASSY MILAGROS MELGAR DA SILVA</v>
+      </c>
+      <c r="C156" t="str">
+        <v/>
+      </c>
+      <c r="D156">
+        <v>6</v>
+      </c>
+      <c r="E156">
+        <v>6</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156" t="str">
+        <v>00:01:10</v>
+      </c>
+      <c r="I156" t="str">
+        <v>00:01:50</v>
+      </c>
+      <c r="J156" t="str">
+        <v>00:00:24</v>
+      </c>
+      <c r="K156" t="str">
+        <v>04:21:32</v>
+      </c>
+      <c r="L156" t="str">
+        <v>01:03:18</v>
+      </c>
+      <c r="M156" t="str">
+        <v>02:01:53</v>
+      </c>
+      <c r="N156" t="str">
+        <v>03:01:24</v>
+      </c>
+      <c r="O156" t="str">
+        <v>00:59:17</v>
+      </c>
+      <c r="P156" t="str">
+        <v>00:02:13</v>
+      </c>
+      <c r="Q156" t="str">
+        <v>00:02:31</v>
+      </c>
+      <c r="R156" t="str">
+        <v>0</v>
+      </c>
+      <c r="S156" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T156" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>E8241650</v>
+      </c>
+      <c r="B157" t="str">
+        <v>E8241650-JOSE ALBERTO GARCIA SALAS</v>
+      </c>
+      <c r="C157" t="str">
+        <v/>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I157" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J157" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K157" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L157" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M157" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N157" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O157" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P157" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q157" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R157" t="str">
+        <v>0</v>
+      </c>
+      <c r="S157" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T157" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>E8238842</v>
+      </c>
+      <c r="B158" t="str">
+        <v>E8238842 - JEANFRANCO DAVID GAMARRA RAMOS</v>
+      </c>
+      <c r="C158" t="str">
+        <v/>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I158" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J158" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K158" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L158" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M158" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N158" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O158" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P158" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q158" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R158" t="str">
+        <v>0</v>
+      </c>
+      <c r="S158" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T158" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>E8240416</v>
+      </c>
+      <c r="B159" t="str">
+        <v>E8240416-CAROLINA MUÑOZ INDACOCHEA</v>
+      </c>
+      <c r="C159" t="str">
+        <v/>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I159" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J159" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K159" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L159" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M159" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N159" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O159" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P159" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q159" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R159" t="str">
+        <v>0</v>
+      </c>
+      <c r="S159" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T159" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>E8242363</v>
+      </c>
+      <c r="B160" t="str">
+        <v>SANDRA CARITO GONZALES LOPEZ</v>
+      </c>
+      <c r="C160" t="str">
+        <v/>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I160" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J160" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K160" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L160" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M160" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N160" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O160" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P160" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q160" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R160" t="str">
+        <v>0</v>
+      </c>
+      <c r="S160" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T160" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>E8235537</v>
+      </c>
+      <c r="B161" t="str">
+        <v>E8235537 - RONALD OWEN DIAZ ARIZA</v>
+      </c>
+      <c r="C161" t="str">
+        <v>17:56:42</v>
+      </c>
+      <c r="D161">
+        <v>9</v>
+      </c>
+      <c r="E161">
+        <v>9</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161" t="str">
+        <v>00:02:10</v>
+      </c>
+      <c r="I161" t="str">
+        <v>00:08:11</v>
+      </c>
+      <c r="J161" t="str">
+        <v>00:00:11</v>
+      </c>
+      <c r="K161" t="str">
+        <v>06:26:24</v>
+      </c>
+      <c r="L161" t="str">
+        <v>01:46:46</v>
+      </c>
+      <c r="M161" t="str">
+        <v>02:25:32</v>
+      </c>
+      <c r="N161" t="str">
+        <v>04:26:22</v>
+      </c>
+      <c r="O161" t="str">
+        <v>01:21:24</v>
+      </c>
+      <c r="P161" t="str">
+        <v>00:02:47</v>
+      </c>
+      <c r="Q161" t="str">
+        <v>00:03:53</v>
+      </c>
+      <c r="R161" t="str">
+        <v>1</v>
+      </c>
+      <c r="S161" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T161" t="str">
+        <v>GR02</v>
+      </c>
+      <c r="V161" t="str">
+        <v>00:00:37</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>E8242395</v>
+      </c>
+      <c r="B162" t="str">
+        <v>E8242395- EYMI NICOLE FARROÑAN QUIÑONES</v>
+      </c>
+      <c r="C162" t="str">
+        <v/>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I162" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J162" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K162" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L162" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M162" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N162" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O162" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P162" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q162" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R162" t="str">
+        <v>0</v>
+      </c>
+      <c r="S162" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T162" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>E8241647</v>
+      </c>
+      <c r="B163" t="str">
+        <v>E8241647-HELIA ERIKA LEON ZAMBRANO</v>
+      </c>
+      <c r="C163" t="str">
+        <v/>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I163" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J163" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K163" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L163" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M163" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N163" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O163" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P163" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q163" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R163" t="str">
+        <v>0</v>
+      </c>
+      <c r="S163" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T163" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>E8241553</v>
+      </c>
+      <c r="B164" t="str">
+        <v>E8241553 - MARIA EUGENIA SANCHEZ MONASTERIO</v>
+      </c>
+      <c r="C164" t="str">
+        <v/>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I164" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J164" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K164" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L164" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M164" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N164" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O164" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P164" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q164" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R164" t="str">
+        <v>0</v>
+      </c>
+      <c r="S164" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T164" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>E8241386</v>
+      </c>
+      <c r="B165" t="str">
+        <v>E8241386 - NELSON POLO BERNUY</v>
+      </c>
+      <c r="C165" t="str">
+        <v/>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I165" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J165" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K165" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L165" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M165" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N165" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O165" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P165" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q165" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R165" t="str">
+        <v>0</v>
+      </c>
+      <c r="S165" t="str">
+        <v>DESCONECTADO</v>
+      </c>
+      <c r="T165" t="str">
+        <v>GR03</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>E8233276</v>
+      </c>
+      <c r="B166" t="str">
+        <v>E8233276 - RICHARD ANTHONY RAMIREZ FLORES</v>
+      </c>
+      <c r="C166" t="str">
+        <v/>
+      </c>
+      <c r="D166">
+        <v>4</v>
+      </c>
+      <c r="E166">
+        <v>4</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166" t="str">
+        <v>00:02:30</v>
+      </c>
+      <c r="I166" t="str">
+        <v>00:05:22</v>
+      </c>
+      <c r="J166" t="str">
+        <v>00:00:09</v>
+      </c>
+      <c r="K166" t="str">
+        <v>04:42:08</v>
+      </c>
+      <c r="L166" t="str">
+        <v>02:03:21</v>
+      </c>
+      <c r="M166" t="str">
+        <v>01:54:10</v>
+      </c>
+      <c r="N166" t="str">
+        <v>03:37:21</v>
+      </c>
+      <c r="O166" t="str">
+        <v>00:51:55</v>
+      </c>
+      <c r="P166" t="str">
+        <v>00:04:35</v>
+      </c>
+      <c r="Q166" t="str">
+        <v>00:07:05</v>
+      </c>
+      <c r="R166" t="str">
+        <v>0</v>
+      </c>
+      <c r="S166" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T166" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>E8238843</v>
+      </c>
+      <c r="B167" t="str">
+        <v>E8238843 - HECTOR LUIS SOLARO VELIZ</v>
+      </c>
+      <c r="C167" t="str">
+        <v/>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="I167" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="J167" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="K167" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="L167" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="M167" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="N167" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="O167" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="P167" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="Q167" t="str">
+        <v>00:00:00</v>
+      </c>
+      <c r="R167" t="str">
+        <v>0</v>
+      </c>
+      <c r="S167" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T167" t="str">
+        <v>GR02</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>E8236940</v>
+      </c>
+      <c r="B168" t="str">
+        <v>E8236940-FABIANO DAVID PEREA RODRIGUEZ</v>
+      </c>
+      <c r="C168" t="str">
+        <v/>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168" t="str">
+        <v>00:03:21</v>
+      </c>
+      <c r="I168" t="str">
+        <v>00:06:33</v>
+      </c>
+      <c r="J168" t="str">
+        <v>00:00:10</v>
+      </c>
+      <c r="K168" t="str">
+        <v>01:29:39</v>
+      </c>
+      <c r="L168" t="str">
+        <v>01:13:23</v>
+      </c>
+      <c r="M168" t="str">
+        <v>00:57:41</v>
+      </c>
+      <c r="N168" t="str">
+        <v>01:09:26</v>
+      </c>
+      <c r="O168" t="str">
+        <v>00:45:57</v>
+      </c>
+      <c r="P168" t="str">
+        <v>00:01:01</v>
+      </c>
+      <c r="Q168" t="str">
+        <v>00:01:08</v>
+      </c>
+      <c r="R168" t="str">
+        <v>0</v>
+      </c>
+      <c r="S168" t="str">
+        <v>ACTIVO</v>
+      </c>
+      <c r="T168" t="str">
+        <v>GR02</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:X85"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:X168"/>
   </ignoredErrors>
 </worksheet>
 </file>